--- a/User_Data/ABS/Full_Sheets/648401.xlsx
+++ b/User_Data/ABS/Full_Sheets/648401.xlsx
@@ -17,221 +17,221 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$103</definedName>
-    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$103</definedName>
-    <definedName name="A128473239F_Latest">Data1!$AC$103</definedName>
-    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$103</definedName>
-    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$103</definedName>
-    <definedName name="A128473240R_Latest">Data1!$BL$103</definedName>
-    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$103</definedName>
-    <definedName name="A128473315W_Data">Data1!$U$11:$U$103</definedName>
-    <definedName name="A128473315W_Latest">Data1!$U$103</definedName>
-    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$103</definedName>
-    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$103</definedName>
-    <definedName name="A128473316X_Latest">Data1!$BD$103</definedName>
-    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$103</definedName>
-    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$103</definedName>
-    <definedName name="A128473361K_Latest">Data1!$AA$103</definedName>
-    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$103</definedName>
-    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$103</definedName>
-    <definedName name="A128473362L_Latest">Data1!$BJ$103</definedName>
-    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$103</definedName>
-    <definedName name="A128473449C_Data">Data1!$P$11:$P$103</definedName>
-    <definedName name="A128473449C_Latest">Data1!$P$103</definedName>
-    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$103</definedName>
-    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$103</definedName>
-    <definedName name="A128473450L_Latest">Data1!$AY$103</definedName>
-    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$103</definedName>
-    <definedName name="A128473623X_Data">Data1!$I$11:$I$103</definedName>
-    <definedName name="A128473623X_Latest">Data1!$I$103</definedName>
-    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$103</definedName>
-    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$103</definedName>
-    <definedName name="A128473624A_Latest">Data1!$AR$103</definedName>
-    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$103</definedName>
-    <definedName name="A128474303F_Data">Data1!$R$11:$R$103</definedName>
-    <definedName name="A128474303F_Latest">Data1!$R$103</definedName>
-    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$103</definedName>
-    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$103</definedName>
-    <definedName name="A128474304J_Latest">Data1!$BA$103</definedName>
-    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$103</definedName>
-    <definedName name="A128475063X_Data">Data1!$X$11:$X$103</definedName>
-    <definedName name="A128475063X_Latest">Data1!$X$103</definedName>
-    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$103</definedName>
-    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$103</definedName>
-    <definedName name="A128475064A_Latest">Data1!$BG$103</definedName>
-    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$103</definedName>
-    <definedName name="A128475329W_Data">Data1!$H$11:$H$103</definedName>
-    <definedName name="A128475329W_Latest">Data1!$H$103</definedName>
-    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$103</definedName>
-    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$103</definedName>
-    <definedName name="A128475330F_Latest">Data1!$AQ$103</definedName>
-    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$103</definedName>
-    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$103</definedName>
-    <definedName name="A128475405L_Latest">Data1!$Q$103</definedName>
-    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$103</definedName>
-    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$103</definedName>
-    <definedName name="A128475406R_Latest">Data1!$AZ$103</definedName>
-    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$103</definedName>
-    <definedName name="A128475583C_Data">Data1!$M$11:$M$103</definedName>
-    <definedName name="A128475583C_Latest">Data1!$M$103</definedName>
-    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$103</definedName>
-    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$103</definedName>
-    <definedName name="A128475584F_Latest">Data1!$AV$103</definedName>
-    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$103</definedName>
-    <definedName name="A128475629X_Data">Data1!$D$11:$D$103</definedName>
-    <definedName name="A128475629X_Latest">Data1!$D$103</definedName>
-    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$103</definedName>
-    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$103</definedName>
-    <definedName name="A128475630J_Latest">Data1!$AM$103</definedName>
-    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$103</definedName>
-    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$103</definedName>
-    <definedName name="A128475797K_Latest">Data1!$Z$103</definedName>
-    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$103</definedName>
-    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$103</definedName>
-    <definedName name="A128475798L_Latest">Data1!$BI$103</definedName>
-    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$103</definedName>
-    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$103</definedName>
-    <definedName name="A128476505R_Latest">Data1!$AI$103</definedName>
-    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$103</definedName>
-    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$103</definedName>
-    <definedName name="A128476506T_Latest">Data1!$BS$103</definedName>
-    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$103</definedName>
-    <definedName name="A128476849V_Data">Data1!$S$11:$S$103</definedName>
-    <definedName name="A128476849V_Latest">Data1!$S$103</definedName>
-    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$103</definedName>
-    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$103</definedName>
-    <definedName name="A128476850C_Latest">Data1!$BB$103</definedName>
-    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$103</definedName>
-    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$103</definedName>
-    <definedName name="A128477043A_Latest">Data1!$AB$103</definedName>
-    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$103</definedName>
-    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$103</definedName>
-    <definedName name="A128477044C_Latest">Data1!$BK$103</definedName>
-    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$103</definedName>
-    <definedName name="A128477399R_Data">Data1!$J$11:$J$103</definedName>
-    <definedName name="A128477399R_Latest">Data1!$J$103</definedName>
-    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$103</definedName>
-    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$103</definedName>
-    <definedName name="A128477400L_Latest">Data1!$AS$103</definedName>
-    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$103</definedName>
-    <definedName name="A128477405X_Data">Data1!$F$11:$F$103</definedName>
-    <definedName name="A128477405X_Latest">Data1!$F$103</definedName>
-    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$103</definedName>
-    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$103</definedName>
-    <definedName name="A128477406A_Latest">Data1!$AO$103</definedName>
-    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$103</definedName>
-    <definedName name="A128478317T_Data">Data1!$B$11:$B$103</definedName>
-    <definedName name="A128478317T_Latest">Data1!$B$103</definedName>
-    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$103</definedName>
-    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$103</definedName>
-    <definedName name="A128478318V_Latest">Data1!$AK$103</definedName>
-    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$103</definedName>
-    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$103</definedName>
-    <definedName name="A128478473V_Latest">Data1!$Y$103</definedName>
-    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$103</definedName>
-    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$103</definedName>
-    <definedName name="A128478474W_Latest">Data1!$BH$103</definedName>
-    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$103</definedName>
-    <definedName name="A128478847A_Data">Data1!$N$11:$N$103</definedName>
-    <definedName name="A128478847A_Latest">Data1!$N$103</definedName>
-    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$103</definedName>
-    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$103</definedName>
-    <definedName name="A128478848C_Latest">Data1!$AW$103</definedName>
-    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$103</definedName>
-    <definedName name="A128479215W_Data">Data1!$E$11:$E$103</definedName>
-    <definedName name="A128479215W_Latest">Data1!$E$103</definedName>
-    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$103</definedName>
-    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$103</definedName>
-    <definedName name="A128479216X_Latest">Data1!$AN$103</definedName>
-    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$103</definedName>
-    <definedName name="A128479281V_Data">Data1!$K$11:$K$103</definedName>
-    <definedName name="A128479281V_Latest">Data1!$K$103</definedName>
-    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$103</definedName>
-    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$103</definedName>
-    <definedName name="A128479282W_Latest">Data1!$AT$103</definedName>
-    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$103</definedName>
-    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$103</definedName>
-    <definedName name="A128480133R_Latest">Data1!$AJ$103</definedName>
-    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$103</definedName>
-    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$103</definedName>
-    <definedName name="A128480134T_Latest">Data1!$BT$103</definedName>
-    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$103</definedName>
-    <definedName name="A128480215V_Data">Data1!$G$11:$G$103</definedName>
-    <definedName name="A128480215V_Latest">Data1!$G$103</definedName>
-    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$103</definedName>
-    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$103</definedName>
-    <definedName name="A128480216W_Latest">Data1!$AP$103</definedName>
-    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$103</definedName>
-    <definedName name="A128480733V_Data">Data1!$C$11:$C$103</definedName>
-    <definedName name="A128480733V_Latest">Data1!$C$103</definedName>
-    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$103</definedName>
-    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$103</definedName>
-    <definedName name="A128480734W_Latest">Data1!$AL$103</definedName>
-    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$103</definedName>
-    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$103</definedName>
-    <definedName name="A128481587A_Latest">Data1!$AD$103</definedName>
-    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$103</definedName>
-    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$103</definedName>
-    <definedName name="A128481588C_Latest">Data1!$BM$103</definedName>
-    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$103</definedName>
-    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$103</definedName>
-    <definedName name="A128481639T_Latest">Data1!$AH$103</definedName>
-    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$103</definedName>
-    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$103</definedName>
-    <definedName name="A128481640A_Latest">Data1!$BR$103</definedName>
-    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$103</definedName>
-    <definedName name="A128482435J_Data">Data1!$V$11:$V$103</definedName>
-    <definedName name="A128482435J_Latest">Data1!$V$103</definedName>
-    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$103</definedName>
-    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$103</definedName>
-    <definedName name="A128482436K_Latest">Data1!$BE$103</definedName>
-    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$103</definedName>
-    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$103</definedName>
-    <definedName name="A128483461F_Latest">Data1!$AG$103</definedName>
-    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$103</definedName>
-    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$103</definedName>
-    <definedName name="A128483462J_Latest">Data1!$BQ$103</definedName>
-    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$103</definedName>
-    <definedName name="A128484257R_Data">Data1!$L$11:$L$103</definedName>
-    <definedName name="A128484257R_Latest">Data1!$L$103</definedName>
-    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$103</definedName>
-    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$103</definedName>
-    <definedName name="A128484258T_Latest">Data1!$AU$103</definedName>
-    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$103</definedName>
-    <definedName name="A128484685K_Data">Data1!$W$11:$W$103</definedName>
-    <definedName name="A128484685K_Latest">Data1!$W$103</definedName>
-    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$103</definedName>
-    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$103</definedName>
-    <definedName name="A128484686L_Latest">Data1!$BF$103</definedName>
-    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$103</definedName>
-    <definedName name="A128485865L_Data">Data1!$O$11:$O$103</definedName>
-    <definedName name="A128485865L_Latest">Data1!$O$103</definedName>
-    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$103</definedName>
-    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$103</definedName>
-    <definedName name="A128485866R_Latest">Data1!$AX$103</definedName>
-    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$103</definedName>
-    <definedName name="A128485881L_Data">Data1!$T$11:$T$103</definedName>
-    <definedName name="A128485881L_Latest">Data1!$T$103</definedName>
-    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$103</definedName>
-    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$103</definedName>
-    <definedName name="A128485882R_Latest">Data1!$BC$103</definedName>
-    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$103</definedName>
-    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$103</definedName>
-    <definedName name="A130184496J_Latest">Data1!$BN$103</definedName>
-    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$103</definedName>
-    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$103</definedName>
-    <definedName name="A130184497K_Latest">Data1!$BP$103</definedName>
-    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$103</definedName>
-    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$103</definedName>
-    <definedName name="A130184498L_Latest">Data1!$BO$103</definedName>
-    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$103</definedName>
-    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$103</definedName>
-    <definedName name="A130184499R_Latest">Data1!$AE$103</definedName>
-    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$103</definedName>
-    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$103</definedName>
-    <definedName name="A130184501R_Latest">Data1!$AF$103</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$103</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$103</definedName>
+    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$104</definedName>
+    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$104</definedName>
+    <definedName name="A128473239F_Latest">Data1!$AC$104</definedName>
+    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$104</definedName>
+    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$104</definedName>
+    <definedName name="A128473240R_Latest">Data1!$BL$104</definedName>
+    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$104</definedName>
+    <definedName name="A128473315W_Data">Data1!$U$11:$U$104</definedName>
+    <definedName name="A128473315W_Latest">Data1!$U$104</definedName>
+    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$104</definedName>
+    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$104</definedName>
+    <definedName name="A128473316X_Latest">Data1!$BD$104</definedName>
+    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$104</definedName>
+    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$104</definedName>
+    <definedName name="A128473361K_Latest">Data1!$AA$104</definedName>
+    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$104</definedName>
+    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$104</definedName>
+    <definedName name="A128473362L_Latest">Data1!$BJ$104</definedName>
+    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$104</definedName>
+    <definedName name="A128473449C_Data">Data1!$P$11:$P$104</definedName>
+    <definedName name="A128473449C_Latest">Data1!$P$104</definedName>
+    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$104</definedName>
+    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$104</definedName>
+    <definedName name="A128473450L_Latest">Data1!$AY$104</definedName>
+    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$104</definedName>
+    <definedName name="A128473623X_Data">Data1!$I$11:$I$104</definedName>
+    <definedName name="A128473623X_Latest">Data1!$I$104</definedName>
+    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$104</definedName>
+    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$104</definedName>
+    <definedName name="A128473624A_Latest">Data1!$AR$104</definedName>
+    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$104</definedName>
+    <definedName name="A128474303F_Data">Data1!$R$11:$R$104</definedName>
+    <definedName name="A128474303F_Latest">Data1!$R$104</definedName>
+    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$104</definedName>
+    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$104</definedName>
+    <definedName name="A128474304J_Latest">Data1!$BA$104</definedName>
+    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$104</definedName>
+    <definedName name="A128475063X_Data">Data1!$X$11:$X$104</definedName>
+    <definedName name="A128475063X_Latest">Data1!$X$104</definedName>
+    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$104</definedName>
+    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$104</definedName>
+    <definedName name="A128475064A_Latest">Data1!$BG$104</definedName>
+    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$104</definedName>
+    <definedName name="A128475329W_Data">Data1!$H$11:$H$104</definedName>
+    <definedName name="A128475329W_Latest">Data1!$H$104</definedName>
+    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$104</definedName>
+    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$104</definedName>
+    <definedName name="A128475330F_Latest">Data1!$AQ$104</definedName>
+    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$104</definedName>
+    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$104</definedName>
+    <definedName name="A128475405L_Latest">Data1!$Q$104</definedName>
+    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$104</definedName>
+    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$104</definedName>
+    <definedName name="A128475406R_Latest">Data1!$AZ$104</definedName>
+    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$104</definedName>
+    <definedName name="A128475583C_Data">Data1!$M$11:$M$104</definedName>
+    <definedName name="A128475583C_Latest">Data1!$M$104</definedName>
+    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$104</definedName>
+    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$104</definedName>
+    <definedName name="A128475584F_Latest">Data1!$AV$104</definedName>
+    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$104</definedName>
+    <definedName name="A128475629X_Data">Data1!$D$11:$D$104</definedName>
+    <definedName name="A128475629X_Latest">Data1!$D$104</definedName>
+    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$104</definedName>
+    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$104</definedName>
+    <definedName name="A128475630J_Latest">Data1!$AM$104</definedName>
+    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$104</definedName>
+    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$104</definedName>
+    <definedName name="A128475797K_Latest">Data1!$Z$104</definedName>
+    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$104</definedName>
+    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$104</definedName>
+    <definedName name="A128475798L_Latest">Data1!$BI$104</definedName>
+    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$104</definedName>
+    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$104</definedName>
+    <definedName name="A128476505R_Latest">Data1!$AI$104</definedName>
+    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$104</definedName>
+    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$104</definedName>
+    <definedName name="A128476506T_Latest">Data1!$BS$104</definedName>
+    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$104</definedName>
+    <definedName name="A128476849V_Data">Data1!$S$11:$S$104</definedName>
+    <definedName name="A128476849V_Latest">Data1!$S$104</definedName>
+    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$104</definedName>
+    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$104</definedName>
+    <definedName name="A128476850C_Latest">Data1!$BB$104</definedName>
+    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$104</definedName>
+    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$104</definedName>
+    <definedName name="A128477043A_Latest">Data1!$AB$104</definedName>
+    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$104</definedName>
+    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$104</definedName>
+    <definedName name="A128477044C_Latest">Data1!$BK$104</definedName>
+    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$104</definedName>
+    <definedName name="A128477399R_Data">Data1!$J$11:$J$104</definedName>
+    <definedName name="A128477399R_Latest">Data1!$J$104</definedName>
+    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$104</definedName>
+    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$104</definedName>
+    <definedName name="A128477400L_Latest">Data1!$AS$104</definedName>
+    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$104</definedName>
+    <definedName name="A128477405X_Data">Data1!$F$11:$F$104</definedName>
+    <definedName name="A128477405X_Latest">Data1!$F$104</definedName>
+    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$104</definedName>
+    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$104</definedName>
+    <definedName name="A128477406A_Latest">Data1!$AO$104</definedName>
+    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$104</definedName>
+    <definedName name="A128478317T_Data">Data1!$B$11:$B$104</definedName>
+    <definedName name="A128478317T_Latest">Data1!$B$104</definedName>
+    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$104</definedName>
+    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$104</definedName>
+    <definedName name="A128478318V_Latest">Data1!$AK$104</definedName>
+    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$104</definedName>
+    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$104</definedName>
+    <definedName name="A128478473V_Latest">Data1!$Y$104</definedName>
+    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$104</definedName>
+    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$104</definedName>
+    <definedName name="A128478474W_Latest">Data1!$BH$104</definedName>
+    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$104</definedName>
+    <definedName name="A128478847A_Data">Data1!$N$11:$N$104</definedName>
+    <definedName name="A128478847A_Latest">Data1!$N$104</definedName>
+    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$104</definedName>
+    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$104</definedName>
+    <definedName name="A128478848C_Latest">Data1!$AW$104</definedName>
+    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$104</definedName>
+    <definedName name="A128479215W_Data">Data1!$E$11:$E$104</definedName>
+    <definedName name="A128479215W_Latest">Data1!$E$104</definedName>
+    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$104</definedName>
+    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$104</definedName>
+    <definedName name="A128479216X_Latest">Data1!$AN$104</definedName>
+    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$104</definedName>
+    <definedName name="A128479281V_Data">Data1!$K$11:$K$104</definedName>
+    <definedName name="A128479281V_Latest">Data1!$K$104</definedName>
+    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$104</definedName>
+    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$104</definedName>
+    <definedName name="A128479282W_Latest">Data1!$AT$104</definedName>
+    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$104</definedName>
+    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$104</definedName>
+    <definedName name="A128480133R_Latest">Data1!$AJ$104</definedName>
+    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$104</definedName>
+    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$104</definedName>
+    <definedName name="A128480134T_Latest">Data1!$BT$104</definedName>
+    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$104</definedName>
+    <definedName name="A128480215V_Data">Data1!$G$11:$G$104</definedName>
+    <definedName name="A128480215V_Latest">Data1!$G$104</definedName>
+    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$104</definedName>
+    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$104</definedName>
+    <definedName name="A128480216W_Latest">Data1!$AP$104</definedName>
+    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$104</definedName>
+    <definedName name="A128480733V_Data">Data1!$C$11:$C$104</definedName>
+    <definedName name="A128480733V_Latest">Data1!$C$104</definedName>
+    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$104</definedName>
+    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$104</definedName>
+    <definedName name="A128480734W_Latest">Data1!$AL$104</definedName>
+    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$104</definedName>
+    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$104</definedName>
+    <definedName name="A128481587A_Latest">Data1!$AD$104</definedName>
+    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$104</definedName>
+    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$104</definedName>
+    <definedName name="A128481588C_Latest">Data1!$BM$104</definedName>
+    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$104</definedName>
+    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$104</definedName>
+    <definedName name="A128481639T_Latest">Data1!$AH$104</definedName>
+    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$104</definedName>
+    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$104</definedName>
+    <definedName name="A128481640A_Latest">Data1!$BR$104</definedName>
+    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$104</definedName>
+    <definedName name="A128482435J_Data">Data1!$V$11:$V$104</definedName>
+    <definedName name="A128482435J_Latest">Data1!$V$104</definedName>
+    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$104</definedName>
+    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$104</definedName>
+    <definedName name="A128482436K_Latest">Data1!$BE$104</definedName>
+    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$104</definedName>
+    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$104</definedName>
+    <definedName name="A128483461F_Latest">Data1!$AG$104</definedName>
+    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$104</definedName>
+    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$104</definedName>
+    <definedName name="A128483462J_Latest">Data1!$BQ$104</definedName>
+    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$104</definedName>
+    <definedName name="A128484257R_Data">Data1!$L$11:$L$104</definedName>
+    <definedName name="A128484257R_Latest">Data1!$L$104</definedName>
+    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$104</definedName>
+    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$104</definedName>
+    <definedName name="A128484258T_Latest">Data1!$AU$104</definedName>
+    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$104</definedName>
+    <definedName name="A128484685K_Data">Data1!$W$11:$W$104</definedName>
+    <definedName name="A128484685K_Latest">Data1!$W$104</definedName>
+    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$104</definedName>
+    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$104</definedName>
+    <definedName name="A128484686L_Latest">Data1!$BF$104</definedName>
+    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$104</definedName>
+    <definedName name="A128485865L_Data">Data1!$O$11:$O$104</definedName>
+    <definedName name="A128485865L_Latest">Data1!$O$104</definedName>
+    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$104</definedName>
+    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$104</definedName>
+    <definedName name="A128485866R_Latest">Data1!$AX$104</definedName>
+    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$104</definedName>
+    <definedName name="A128485881L_Data">Data1!$T$11:$T$104</definedName>
+    <definedName name="A128485881L_Latest">Data1!$T$104</definedName>
+    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$104</definedName>
+    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$104</definedName>
+    <definedName name="A128485882R_Latest">Data1!$BC$104</definedName>
+    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$104</definedName>
+    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$104</definedName>
+    <definedName name="A130184496J_Latest">Data1!$BN$104</definedName>
+    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$104</definedName>
+    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$104</definedName>
+    <definedName name="A130184497K_Latest">Data1!$BP$104</definedName>
+    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$104</definedName>
+    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$104</definedName>
+    <definedName name="A130184498L_Latest">Data1!$BO$104</definedName>
+    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$104</definedName>
+    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$104</definedName>
+    <definedName name="A130184499R_Latest">Data1!$AE$104</definedName>
+    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$104</definedName>
+    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$104</definedName>
+    <definedName name="A130184501R_Latest">Data1!$AF$104</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$104</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1196,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD16" authorId="0" shapeId="0">
+    <comment ref="AD43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM28" authorId="0" shapeId="0">
+    <comment ref="BM43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD67" authorId="0" shapeId="0">
+    <comment ref="BM55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM67" authorId="0" shapeId="0">
+    <comment ref="AD92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM79" authorId="0" shapeId="0">
+    <comment ref="BM92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD86" authorId="0" shapeId="0">
+    <comment ref="AD99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM86" authorId="0" shapeId="0">
+    <comment ref="BM99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1287,59 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD90" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BM90" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD91" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BM91" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD100" authorId="0" shapeId="0">
+    <comment ref="AD102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2554,10 +2502,10 @@
         <v>42979</v>
       </c>
       <c r="G12" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H12" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>78</v>
@@ -2586,10 +2534,10 @@
         <v>42979</v>
       </c>
       <c r="G13" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H13" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>78</v>
@@ -2618,10 +2566,10 @@
         <v>42979</v>
       </c>
       <c r="G14" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H14" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>78</v>
@@ -2650,10 +2598,10 @@
         <v>42979</v>
       </c>
       <c r="G15" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H15" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>78</v>
@@ -2682,10 +2630,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H16" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>78</v>
@@ -2714,10 +2662,10 @@
         <v>42979</v>
       </c>
       <c r="G17" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H17" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>78</v>
@@ -2746,10 +2694,10 @@
         <v>42979</v>
       </c>
       <c r="G18" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H18" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>78</v>
@@ -2778,10 +2726,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H19" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>78</v>
@@ -2810,10 +2758,10 @@
         <v>42979</v>
       </c>
       <c r="G20" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H20" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>78</v>
@@ -2842,10 +2790,10 @@
         <v>42979</v>
       </c>
       <c r="G21" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H21" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>78</v>
@@ -2874,10 +2822,10 @@
         <v>42979</v>
       </c>
       <c r="G22" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H22" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>78</v>
@@ -2906,10 +2854,10 @@
         <v>42979</v>
       </c>
       <c r="G23" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H23" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>78</v>
@@ -2938,10 +2886,10 @@
         <v>42979</v>
       </c>
       <c r="G24" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H24" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>78</v>
@@ -2970,10 +2918,10 @@
         <v>42979</v>
       </c>
       <c r="G25" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H25" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>78</v>
@@ -3002,10 +2950,10 @@
         <v>42979</v>
       </c>
       <c r="G26" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H26" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>78</v>
@@ -3034,10 +2982,10 @@
         <v>42979</v>
       </c>
       <c r="G27" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H27" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>78</v>
@@ -3066,10 +3014,10 @@
         <v>42979</v>
       </c>
       <c r="G28" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H28" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>78</v>
@@ -3098,10 +3046,10 @@
         <v>42979</v>
       </c>
       <c r="G29" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H29" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>78</v>
@@ -3130,10 +3078,10 @@
         <v>42979</v>
       </c>
       <c r="G30" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H30" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>78</v>
@@ -3162,10 +3110,10 @@
         <v>42979</v>
       </c>
       <c r="G31" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H31" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>78</v>
@@ -3194,10 +3142,10 @@
         <v>42979</v>
       </c>
       <c r="G32" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H32" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>78</v>
@@ -3226,10 +3174,10 @@
         <v>42979</v>
       </c>
       <c r="G33" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H33" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>78</v>
@@ -3258,10 +3206,10 @@
         <v>42979</v>
       </c>
       <c r="G34" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H34" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>78</v>
@@ -3290,10 +3238,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H35" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>78</v>
@@ -3322,10 +3270,10 @@
         <v>42979</v>
       </c>
       <c r="G36" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H36" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>78</v>
@@ -3354,10 +3302,10 @@
         <v>42979</v>
       </c>
       <c r="G37" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H37" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>78</v>
@@ -3386,10 +3334,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H38" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>78</v>
@@ -3418,10 +3366,10 @@
         <v>42979</v>
       </c>
       <c r="G39" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H39" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>78</v>
@@ -3450,10 +3398,10 @@
         <v>42979</v>
       </c>
       <c r="G40" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H40" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>78</v>
@@ -3482,10 +3430,10 @@
         <v>42979</v>
       </c>
       <c r="G41" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H41" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>78</v>
@@ -3514,10 +3462,10 @@
         <v>42979</v>
       </c>
       <c r="G42" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H42" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>78</v>
@@ -3546,10 +3494,10 @@
         <v>42979</v>
       </c>
       <c r="G43" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H43" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>78</v>
@@ -3578,10 +3526,10 @@
         <v>42979</v>
       </c>
       <c r="G44" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H44" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>78</v>
@@ -3610,10 +3558,10 @@
         <v>42979</v>
       </c>
       <c r="G45" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H45" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>78</v>
@@ -3642,10 +3590,10 @@
         <v>42979</v>
       </c>
       <c r="G46" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H46" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>78</v>
@@ -3674,10 +3622,10 @@
         <v>43344</v>
       </c>
       <c r="G47" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H47" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>118</v>
@@ -3706,10 +3654,10 @@
         <v>43344</v>
       </c>
       <c r="G48" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H48" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>118</v>
@@ -3738,10 +3686,10 @@
         <v>43344</v>
       </c>
       <c r="G49" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H49" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>118</v>
@@ -3770,10 +3718,10 @@
         <v>43344</v>
       </c>
       <c r="G50" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H50" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>118</v>
@@ -3802,10 +3750,10 @@
         <v>43344</v>
       </c>
       <c r="G51" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H51" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>118</v>
@@ -3834,10 +3782,10 @@
         <v>43344</v>
       </c>
       <c r="G52" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H52" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>118</v>
@@ -3866,10 +3814,10 @@
         <v>43344</v>
       </c>
       <c r="G53" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H53" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>118</v>
@@ -3898,10 +3846,10 @@
         <v>43344</v>
       </c>
       <c r="G54" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H54" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>118</v>
@@ -3930,10 +3878,10 @@
         <v>43344</v>
       </c>
       <c r="G55" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H55" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>118</v>
@@ -3962,10 +3910,10 @@
         <v>43344</v>
       </c>
       <c r="G56" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H56" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>118</v>
@@ -3994,10 +3942,10 @@
         <v>43344</v>
       </c>
       <c r="G57" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H57" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>118</v>
@@ -4026,10 +3974,10 @@
         <v>43344</v>
       </c>
       <c r="G58" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H58" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>118</v>
@@ -4058,10 +4006,10 @@
         <v>43344</v>
       </c>
       <c r="G59" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H59" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>118</v>
@@ -4090,10 +4038,10 @@
         <v>43344</v>
       </c>
       <c r="G60" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H60" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>118</v>
@@ -4122,10 +4070,10 @@
         <v>43344</v>
       </c>
       <c r="G61" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H61" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>118</v>
@@ -4154,10 +4102,10 @@
         <v>43344</v>
       </c>
       <c r="G62" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H62" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>118</v>
@@ -4186,10 +4134,10 @@
         <v>43344</v>
       </c>
       <c r="G63" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H63" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>118</v>
@@ -4218,10 +4166,10 @@
         <v>43344</v>
       </c>
       <c r="G64" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H64" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>118</v>
@@ -4250,10 +4198,10 @@
         <v>43344</v>
       </c>
       <c r="G65" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H65" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>118</v>
@@ -4282,10 +4230,10 @@
         <v>43344</v>
       </c>
       <c r="G66" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H66" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>118</v>
@@ -4314,10 +4262,10 @@
         <v>43344</v>
       </c>
       <c r="G67" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H67" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>118</v>
@@ -4346,10 +4294,10 @@
         <v>43344</v>
       </c>
       <c r="G68" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H68" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>118</v>
@@ -4378,10 +4326,10 @@
         <v>43344</v>
       </c>
       <c r="G69" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H69" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>118</v>
@@ -4410,10 +4358,10 @@
         <v>43344</v>
       </c>
       <c r="G70" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H70" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>118</v>
@@ -4442,10 +4390,10 @@
         <v>43344</v>
       </c>
       <c r="G71" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H71" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>118</v>
@@ -4474,10 +4422,10 @@
         <v>43344</v>
       </c>
       <c r="G72" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H72" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>118</v>
@@ -4506,10 +4454,10 @@
         <v>43344</v>
       </c>
       <c r="G73" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H73" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>118</v>
@@ -4538,10 +4486,10 @@
         <v>43344</v>
       </c>
       <c r="G74" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H74" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>118</v>
@@ -4570,10 +4518,10 @@
         <v>43344</v>
       </c>
       <c r="G75" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H75" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>118</v>
@@ -4602,10 +4550,10 @@
         <v>43344</v>
       </c>
       <c r="G76" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H76" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>118</v>
@@ -4634,10 +4582,10 @@
         <v>43344</v>
       </c>
       <c r="G77" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H77" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>118</v>
@@ -4666,10 +4614,10 @@
         <v>43344</v>
       </c>
       <c r="G78" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H78" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>118</v>
@@ -4698,10 +4646,10 @@
         <v>43344</v>
       </c>
       <c r="G79" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H79" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>118</v>
@@ -4730,10 +4678,10 @@
         <v>43344</v>
       </c>
       <c r="G80" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H80" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>118</v>
@@ -4762,10 +4710,10 @@
         <v>43344</v>
       </c>
       <c r="G81" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H81" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>118</v>
@@ -4794,10 +4742,10 @@
         <v>43344</v>
       </c>
       <c r="G82" s="9">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H82" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>118</v>
@@ -4903,7 +4851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT103"/>
+  <dimension ref="A1:BT104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6445,217 +6393,217 @@
         <v>75</v>
       </c>
       <c r="B8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="C8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="D8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="E8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="F8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="G8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="H8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="I8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="J8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="K8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="L8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="M8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="N8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="O8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="P8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="Q8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="R8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="S8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="T8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="U8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="V8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="W8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="X8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="Y8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="Z8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AA8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AB8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AC8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AD8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AE8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AF8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AG8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AH8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AI8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AJ8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AK8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AL8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AM8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AN8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AO8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AP8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AQ8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AR8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AS8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AT8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AU8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AV8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AW8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AX8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AY8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="AZ8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BA8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BB8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BC8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BD8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BE8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BF8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BG8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BH8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BI8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BJ8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BK8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BL8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BM8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BN8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BO8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BP8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BQ8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BR8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BS8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="BT8" s="6">
-        <v>45778</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
@@ -6663,217 +6611,217 @@
         <v>76</v>
       </c>
       <c r="B9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ9" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AS9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AT9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AU9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AY9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BB9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BD9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BE9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BF9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BG9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BH9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BI9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BJ9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BK9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BL9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BM9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BN9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BO9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BP9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BR9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BS9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BT9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
@@ -12863,7 +12811,7 @@
         <v>103</v>
       </c>
       <c r="AD43" s="8">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AE43" s="8">
         <v>102.9</v>
@@ -12968,7 +12916,7 @@
         <v>0.7</v>
       </c>
       <c r="BM43" s="8">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="BN43" s="8">
         <v>0.6</v>
@@ -15584,7 +15532,7 @@
         <v>2.4</v>
       </c>
       <c r="BM55" s="8">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="BN55" s="8">
         <v>3</v>
@@ -23545,7 +23493,7 @@
         <v>122.9</v>
       </c>
       <c r="AD92" s="8">
-        <v>124.4</v>
+        <v>124.5</v>
       </c>
       <c r="AE92" s="8">
         <v>123.5</v>
@@ -23650,7 +23598,7 @@
         <v>3.7</v>
       </c>
       <c r="BM92" s="8">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BN92" s="8">
         <v>4</v>
@@ -25071,7 +25019,7 @@
         <v>123.9</v>
       </c>
       <c r="AD99" s="8">
-        <v>125.6</v>
+        <v>125.5</v>
       </c>
       <c r="AE99" s="8">
         <v>124.5</v>
@@ -25176,7 +25124,7 @@
         <v>2.7</v>
       </c>
       <c r="BM99" s="8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BN99" s="8">
         <v>2.9</v>
@@ -25725,7 +25673,7 @@
         <v>125.7</v>
       </c>
       <c r="AD102" s="8">
-        <v>126.6</v>
+        <v>126.5</v>
       </c>
       <c r="AE102" s="8">
         <v>126.5</v>
@@ -25830,7 +25778,7 @@
         <v>2.9</v>
       </c>
       <c r="BM102" s="8">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BN102" s="8">
         <v>2.8</v>
@@ -26070,6 +26018,224 @@
       </c>
       <c r="BT103" s="8">
         <v>3.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
+        <v>45809</v>
+      </c>
+      <c r="B104" s="8">
+        <v>126.5</v>
+      </c>
+      <c r="C104" s="8">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="D104" s="8">
+        <v>135.6</v>
+      </c>
+      <c r="E104" s="8">
+        <v>130.1</v>
+      </c>
+      <c r="F104" s="8">
+        <v>136.6</v>
+      </c>
+      <c r="G104" s="8">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="H104" s="8">
+        <v>134.1</v>
+      </c>
+      <c r="I104" s="8">
+        <v>139.1</v>
+      </c>
+      <c r="J104" s="8">
+        <v>153</v>
+      </c>
+      <c r="K104" s="8">
+        <v>120.4</v>
+      </c>
+      <c r="L104" s="8">
+        <v>221.7</v>
+      </c>
+      <c r="M104" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="N104" s="8">
+        <v>101</v>
+      </c>
+      <c r="O104" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="P104" s="8">
+        <v>121.2</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="R104" s="8">
+        <v>105.1</v>
+      </c>
+      <c r="S104" s="8">
+        <v>137.1</v>
+      </c>
+      <c r="T104" s="8">
+        <v>118</v>
+      </c>
+      <c r="U104" s="8">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="V104" s="8">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="W104" s="8">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="X104" s="8">
+        <v>90.2</v>
+      </c>
+      <c r="Y104" s="8">
+        <v>111.4</v>
+      </c>
+      <c r="Z104" s="8">
+        <v>115.5</v>
+      </c>
+      <c r="AA104" s="8">
+        <v>133.1</v>
+      </c>
+      <c r="AB104" s="8">
+        <v>128.1</v>
+      </c>
+      <c r="AC104" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="AD104" s="8">
+        <v>126.8</v>
+      </c>
+      <c r="AE104" s="8">
+        <v>126.6</v>
+      </c>
+      <c r="AF104" s="8">
+        <v>126.8</v>
+      </c>
+      <c r="AG104" s="8">
+        <v>129.4</v>
+      </c>
+      <c r="AH104" s="8">
+        <v>122.8</v>
+      </c>
+      <c r="AI104" s="8">
+        <v>119.1</v>
+      </c>
+      <c r="AJ104" s="8">
+        <v>130.6</v>
+      </c>
+      <c r="AK104" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AL104" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="AM104" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AN104" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AO104" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AP104" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AQ104" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="AR104" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="AS104" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="AT104" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AU104" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="AV104" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AW104" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AX104" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AY104" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AZ104" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BA104" s="8">
+        <v>-6.3</v>
+      </c>
+      <c r="BB104" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="BC104" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BD104" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE104" s="8">
+        <v>-1.9</v>
+      </c>
+      <c r="BF104" s="8">
+        <v>-8</v>
+      </c>
+      <c r="BG104" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BH104" s="8">
+        <v>-0.7</v>
+      </c>
+      <c r="BI104" s="8">
+        <v>-3.7</v>
+      </c>
+      <c r="BJ104" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="BK104" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="BL104" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BM104" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="BN104" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="BO104" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="BP104" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BQ104" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BR104" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="BS104" s="8">
+        <v>0</v>
+      </c>
+      <c r="BT104" s="8">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/ABS/Full_Sheets/648401.xlsx
+++ b/User_Data/ABS/Full_Sheets/648401.xlsx
@@ -17,221 +17,221 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$104</definedName>
-    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$104</definedName>
-    <definedName name="A128473239F_Latest">Data1!$AC$104</definedName>
-    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$104</definedName>
-    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$104</definedName>
-    <definedName name="A128473240R_Latest">Data1!$BL$104</definedName>
-    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$104</definedName>
-    <definedName name="A128473315W_Data">Data1!$U$11:$U$104</definedName>
-    <definedName name="A128473315W_Latest">Data1!$U$104</definedName>
-    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$104</definedName>
-    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$104</definedName>
-    <definedName name="A128473316X_Latest">Data1!$BD$104</definedName>
-    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$104</definedName>
-    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$104</definedName>
-    <definedName name="A128473361K_Latest">Data1!$AA$104</definedName>
-    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$104</definedName>
-    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$104</definedName>
-    <definedName name="A128473362L_Latest">Data1!$BJ$104</definedName>
-    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$104</definedName>
-    <definedName name="A128473449C_Data">Data1!$P$11:$P$104</definedName>
-    <definedName name="A128473449C_Latest">Data1!$P$104</definedName>
-    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$104</definedName>
-    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$104</definedName>
-    <definedName name="A128473450L_Latest">Data1!$AY$104</definedName>
-    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$104</definedName>
-    <definedName name="A128473623X_Data">Data1!$I$11:$I$104</definedName>
-    <definedName name="A128473623X_Latest">Data1!$I$104</definedName>
-    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$104</definedName>
-    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$104</definedName>
-    <definedName name="A128473624A_Latest">Data1!$AR$104</definedName>
-    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$104</definedName>
-    <definedName name="A128474303F_Data">Data1!$R$11:$R$104</definedName>
-    <definedName name="A128474303F_Latest">Data1!$R$104</definedName>
-    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$104</definedName>
-    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$104</definedName>
-    <definedName name="A128474304J_Latest">Data1!$BA$104</definedName>
-    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$104</definedName>
-    <definedName name="A128475063X_Data">Data1!$X$11:$X$104</definedName>
-    <definedName name="A128475063X_Latest">Data1!$X$104</definedName>
-    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$104</definedName>
-    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$104</definedName>
-    <definedName name="A128475064A_Latest">Data1!$BG$104</definedName>
-    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$104</definedName>
-    <definedName name="A128475329W_Data">Data1!$H$11:$H$104</definedName>
-    <definedName name="A128475329W_Latest">Data1!$H$104</definedName>
-    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$104</definedName>
-    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$104</definedName>
-    <definedName name="A128475330F_Latest">Data1!$AQ$104</definedName>
-    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$104</definedName>
-    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$104</definedName>
-    <definedName name="A128475405L_Latest">Data1!$Q$104</definedName>
-    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$104</definedName>
-    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$104</definedName>
-    <definedName name="A128475406R_Latest">Data1!$AZ$104</definedName>
-    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$104</definedName>
-    <definedName name="A128475583C_Data">Data1!$M$11:$M$104</definedName>
-    <definedName name="A128475583C_Latest">Data1!$M$104</definedName>
-    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$104</definedName>
-    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$104</definedName>
-    <definedName name="A128475584F_Latest">Data1!$AV$104</definedName>
-    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$104</definedName>
-    <definedName name="A128475629X_Data">Data1!$D$11:$D$104</definedName>
-    <definedName name="A128475629X_Latest">Data1!$D$104</definedName>
-    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$104</definedName>
-    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$104</definedName>
-    <definedName name="A128475630J_Latest">Data1!$AM$104</definedName>
-    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$104</definedName>
-    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$104</definedName>
-    <definedName name="A128475797K_Latest">Data1!$Z$104</definedName>
-    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$104</definedName>
-    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$104</definedName>
-    <definedName name="A128475798L_Latest">Data1!$BI$104</definedName>
-    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$104</definedName>
-    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$104</definedName>
-    <definedName name="A128476505R_Latest">Data1!$AI$104</definedName>
-    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$104</definedName>
-    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$104</definedName>
-    <definedName name="A128476506T_Latest">Data1!$BS$104</definedName>
-    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$104</definedName>
-    <definedName name="A128476849V_Data">Data1!$S$11:$S$104</definedName>
-    <definedName name="A128476849V_Latest">Data1!$S$104</definedName>
-    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$104</definedName>
-    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$104</definedName>
-    <definedName name="A128476850C_Latest">Data1!$BB$104</definedName>
-    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$104</definedName>
-    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$104</definedName>
-    <definedName name="A128477043A_Latest">Data1!$AB$104</definedName>
-    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$104</definedName>
-    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$104</definedName>
-    <definedName name="A128477044C_Latest">Data1!$BK$104</definedName>
-    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$104</definedName>
-    <definedName name="A128477399R_Data">Data1!$J$11:$J$104</definedName>
-    <definedName name="A128477399R_Latest">Data1!$J$104</definedName>
-    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$104</definedName>
-    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$104</definedName>
-    <definedName name="A128477400L_Latest">Data1!$AS$104</definedName>
-    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$104</definedName>
-    <definedName name="A128477405X_Data">Data1!$F$11:$F$104</definedName>
-    <definedName name="A128477405X_Latest">Data1!$F$104</definedName>
-    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$104</definedName>
-    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$104</definedName>
-    <definedName name="A128477406A_Latest">Data1!$AO$104</definedName>
-    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$104</definedName>
-    <definedName name="A128478317T_Data">Data1!$B$11:$B$104</definedName>
-    <definedName name="A128478317T_Latest">Data1!$B$104</definedName>
-    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$104</definedName>
-    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$104</definedName>
-    <definedName name="A128478318V_Latest">Data1!$AK$104</definedName>
-    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$104</definedName>
-    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$104</definedName>
-    <definedName name="A128478473V_Latest">Data1!$Y$104</definedName>
-    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$104</definedName>
-    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$104</definedName>
-    <definedName name="A128478474W_Latest">Data1!$BH$104</definedName>
-    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$104</definedName>
-    <definedName name="A128478847A_Data">Data1!$N$11:$N$104</definedName>
-    <definedName name="A128478847A_Latest">Data1!$N$104</definedName>
-    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$104</definedName>
-    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$104</definedName>
-    <definedName name="A128478848C_Latest">Data1!$AW$104</definedName>
-    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$104</definedName>
-    <definedName name="A128479215W_Data">Data1!$E$11:$E$104</definedName>
-    <definedName name="A128479215W_Latest">Data1!$E$104</definedName>
-    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$104</definedName>
-    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$104</definedName>
-    <definedName name="A128479216X_Latest">Data1!$AN$104</definedName>
-    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$104</definedName>
-    <definedName name="A128479281V_Data">Data1!$K$11:$K$104</definedName>
-    <definedName name="A128479281V_Latest">Data1!$K$104</definedName>
-    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$104</definedName>
-    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$104</definedName>
-    <definedName name="A128479282W_Latest">Data1!$AT$104</definedName>
-    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$104</definedName>
-    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$104</definedName>
-    <definedName name="A128480133R_Latest">Data1!$AJ$104</definedName>
-    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$104</definedName>
-    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$104</definedName>
-    <definedName name="A128480134T_Latest">Data1!$BT$104</definedName>
-    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$104</definedName>
-    <definedName name="A128480215V_Data">Data1!$G$11:$G$104</definedName>
-    <definedName name="A128480215V_Latest">Data1!$G$104</definedName>
-    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$104</definedName>
-    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$104</definedName>
-    <definedName name="A128480216W_Latest">Data1!$AP$104</definedName>
-    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$104</definedName>
-    <definedName name="A128480733V_Data">Data1!$C$11:$C$104</definedName>
-    <definedName name="A128480733V_Latest">Data1!$C$104</definedName>
-    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$104</definedName>
-    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$104</definedName>
-    <definedName name="A128480734W_Latest">Data1!$AL$104</definedName>
-    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$104</definedName>
-    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$104</definedName>
-    <definedName name="A128481587A_Latest">Data1!$AD$104</definedName>
-    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$104</definedName>
-    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$104</definedName>
-    <definedName name="A128481588C_Latest">Data1!$BM$104</definedName>
-    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$104</definedName>
-    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$104</definedName>
-    <definedName name="A128481639T_Latest">Data1!$AH$104</definedName>
-    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$104</definedName>
-    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$104</definedName>
-    <definedName name="A128481640A_Latest">Data1!$BR$104</definedName>
-    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$104</definedName>
-    <definedName name="A128482435J_Data">Data1!$V$11:$V$104</definedName>
-    <definedName name="A128482435J_Latest">Data1!$V$104</definedName>
-    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$104</definedName>
-    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$104</definedName>
-    <definedName name="A128482436K_Latest">Data1!$BE$104</definedName>
-    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$104</definedName>
-    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$104</definedName>
-    <definedName name="A128483461F_Latest">Data1!$AG$104</definedName>
-    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$104</definedName>
-    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$104</definedName>
-    <definedName name="A128483462J_Latest">Data1!$BQ$104</definedName>
-    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$104</definedName>
-    <definedName name="A128484257R_Data">Data1!$L$11:$L$104</definedName>
-    <definedName name="A128484257R_Latest">Data1!$L$104</definedName>
-    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$104</definedName>
-    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$104</definedName>
-    <definedName name="A128484258T_Latest">Data1!$AU$104</definedName>
-    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$104</definedName>
-    <definedName name="A128484685K_Data">Data1!$W$11:$W$104</definedName>
-    <definedName name="A128484685K_Latest">Data1!$W$104</definedName>
-    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$104</definedName>
-    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$104</definedName>
-    <definedName name="A128484686L_Latest">Data1!$BF$104</definedName>
-    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$104</definedName>
-    <definedName name="A128485865L_Data">Data1!$O$11:$O$104</definedName>
-    <definedName name="A128485865L_Latest">Data1!$O$104</definedName>
-    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$104</definedName>
-    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$104</definedName>
-    <definedName name="A128485866R_Latest">Data1!$AX$104</definedName>
-    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$104</definedName>
-    <definedName name="A128485881L_Data">Data1!$T$11:$T$104</definedName>
-    <definedName name="A128485881L_Latest">Data1!$T$104</definedName>
-    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$104</definedName>
-    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$104</definedName>
-    <definedName name="A128485882R_Latest">Data1!$BC$104</definedName>
-    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$104</definedName>
-    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$104</definedName>
-    <definedName name="A130184496J_Latest">Data1!$BN$104</definedName>
-    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$104</definedName>
-    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$104</definedName>
-    <definedName name="A130184497K_Latest">Data1!$BP$104</definedName>
-    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$104</definedName>
-    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$104</definedName>
-    <definedName name="A130184498L_Latest">Data1!$BO$104</definedName>
-    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$104</definedName>
-    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$104</definedName>
-    <definedName name="A130184499R_Latest">Data1!$AE$104</definedName>
-    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$104</definedName>
-    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$104</definedName>
-    <definedName name="A130184501R_Latest">Data1!$AF$104</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$104</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$104</definedName>
+    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$105</definedName>
+    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$105</definedName>
+    <definedName name="A128473239F_Latest">Data1!$AC$105</definedName>
+    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$105</definedName>
+    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$105</definedName>
+    <definedName name="A128473240R_Latest">Data1!$BL$105</definedName>
+    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$105</definedName>
+    <definedName name="A128473315W_Data">Data1!$U$11:$U$105</definedName>
+    <definedName name="A128473315W_Latest">Data1!$U$105</definedName>
+    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$105</definedName>
+    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$105</definedName>
+    <definedName name="A128473316X_Latest">Data1!$BD$105</definedName>
+    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$105</definedName>
+    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$105</definedName>
+    <definedName name="A128473361K_Latest">Data1!$AA$105</definedName>
+    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$105</definedName>
+    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$105</definedName>
+    <definedName name="A128473362L_Latest">Data1!$BJ$105</definedName>
+    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$105</definedName>
+    <definedName name="A128473449C_Data">Data1!$P$11:$P$105</definedName>
+    <definedName name="A128473449C_Latest">Data1!$P$105</definedName>
+    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$105</definedName>
+    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$105</definedName>
+    <definedName name="A128473450L_Latest">Data1!$AY$105</definedName>
+    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$105</definedName>
+    <definedName name="A128473623X_Data">Data1!$I$11:$I$105</definedName>
+    <definedName name="A128473623X_Latest">Data1!$I$105</definedName>
+    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$105</definedName>
+    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$105</definedName>
+    <definedName name="A128473624A_Latest">Data1!$AR$105</definedName>
+    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$105</definedName>
+    <definedName name="A128474303F_Data">Data1!$R$11:$R$105</definedName>
+    <definedName name="A128474303F_Latest">Data1!$R$105</definedName>
+    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$105</definedName>
+    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$105</definedName>
+    <definedName name="A128474304J_Latest">Data1!$BA$105</definedName>
+    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$105</definedName>
+    <definedName name="A128475063X_Data">Data1!$X$11:$X$105</definedName>
+    <definedName name="A128475063X_Latest">Data1!$X$105</definedName>
+    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$105</definedName>
+    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$105</definedName>
+    <definedName name="A128475064A_Latest">Data1!$BG$105</definedName>
+    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$105</definedName>
+    <definedName name="A128475329W_Data">Data1!$H$11:$H$105</definedName>
+    <definedName name="A128475329W_Latest">Data1!$H$105</definedName>
+    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$105</definedName>
+    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$105</definedName>
+    <definedName name="A128475330F_Latest">Data1!$AQ$105</definedName>
+    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$105</definedName>
+    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$105</definedName>
+    <definedName name="A128475405L_Latest">Data1!$Q$105</definedName>
+    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$105</definedName>
+    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$105</definedName>
+    <definedName name="A128475406R_Latest">Data1!$AZ$105</definedName>
+    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$105</definedName>
+    <definedName name="A128475583C_Data">Data1!$M$11:$M$105</definedName>
+    <definedName name="A128475583C_Latest">Data1!$M$105</definedName>
+    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$105</definedName>
+    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$105</definedName>
+    <definedName name="A128475584F_Latest">Data1!$AV$105</definedName>
+    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$105</definedName>
+    <definedName name="A128475629X_Data">Data1!$D$11:$D$105</definedName>
+    <definedName name="A128475629X_Latest">Data1!$D$105</definedName>
+    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$105</definedName>
+    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$105</definedName>
+    <definedName name="A128475630J_Latest">Data1!$AM$105</definedName>
+    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$105</definedName>
+    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$105</definedName>
+    <definedName name="A128475797K_Latest">Data1!$Z$105</definedName>
+    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$105</definedName>
+    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$105</definedName>
+    <definedName name="A128475798L_Latest">Data1!$BI$105</definedName>
+    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$105</definedName>
+    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$105</definedName>
+    <definedName name="A128476505R_Latest">Data1!$AI$105</definedName>
+    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$105</definedName>
+    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$105</definedName>
+    <definedName name="A128476506T_Latest">Data1!$BS$105</definedName>
+    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$105</definedName>
+    <definedName name="A128476849V_Data">Data1!$S$11:$S$105</definedName>
+    <definedName name="A128476849V_Latest">Data1!$S$105</definedName>
+    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$105</definedName>
+    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$105</definedName>
+    <definedName name="A128476850C_Latest">Data1!$BB$105</definedName>
+    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$105</definedName>
+    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$105</definedName>
+    <definedName name="A128477043A_Latest">Data1!$AB$105</definedName>
+    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$105</definedName>
+    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$105</definedName>
+    <definedName name="A128477044C_Latest">Data1!$BK$105</definedName>
+    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$105</definedName>
+    <definedName name="A128477399R_Data">Data1!$J$11:$J$105</definedName>
+    <definedName name="A128477399R_Latest">Data1!$J$105</definedName>
+    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$105</definedName>
+    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$105</definedName>
+    <definedName name="A128477400L_Latest">Data1!$AS$105</definedName>
+    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$105</definedName>
+    <definedName name="A128477405X_Data">Data1!$F$11:$F$105</definedName>
+    <definedName name="A128477405X_Latest">Data1!$F$105</definedName>
+    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$105</definedName>
+    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$105</definedName>
+    <definedName name="A128477406A_Latest">Data1!$AO$105</definedName>
+    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$105</definedName>
+    <definedName name="A128478317T_Data">Data1!$B$11:$B$105</definedName>
+    <definedName name="A128478317T_Latest">Data1!$B$105</definedName>
+    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$105</definedName>
+    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$105</definedName>
+    <definedName name="A128478318V_Latest">Data1!$AK$105</definedName>
+    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$105</definedName>
+    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$105</definedName>
+    <definedName name="A128478473V_Latest">Data1!$Y$105</definedName>
+    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$105</definedName>
+    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$105</definedName>
+    <definedName name="A128478474W_Latest">Data1!$BH$105</definedName>
+    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$105</definedName>
+    <definedName name="A128478847A_Data">Data1!$N$11:$N$105</definedName>
+    <definedName name="A128478847A_Latest">Data1!$N$105</definedName>
+    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$105</definedName>
+    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$105</definedName>
+    <definedName name="A128478848C_Latest">Data1!$AW$105</definedName>
+    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$105</definedName>
+    <definedName name="A128479215W_Data">Data1!$E$11:$E$105</definedName>
+    <definedName name="A128479215W_Latest">Data1!$E$105</definedName>
+    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$105</definedName>
+    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$105</definedName>
+    <definedName name="A128479216X_Latest">Data1!$AN$105</definedName>
+    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$105</definedName>
+    <definedName name="A128479281V_Data">Data1!$K$11:$K$105</definedName>
+    <definedName name="A128479281V_Latest">Data1!$K$105</definedName>
+    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$105</definedName>
+    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$105</definedName>
+    <definedName name="A128479282W_Latest">Data1!$AT$105</definedName>
+    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$105</definedName>
+    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$105</definedName>
+    <definedName name="A128480133R_Latest">Data1!$AJ$105</definedName>
+    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$105</definedName>
+    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$105</definedName>
+    <definedName name="A128480134T_Latest">Data1!$BT$105</definedName>
+    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$105</definedName>
+    <definedName name="A128480215V_Data">Data1!$G$11:$G$105</definedName>
+    <definedName name="A128480215V_Latest">Data1!$G$105</definedName>
+    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$105</definedName>
+    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$105</definedName>
+    <definedName name="A128480216W_Latest">Data1!$AP$105</definedName>
+    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$105</definedName>
+    <definedName name="A128480733V_Data">Data1!$C$11:$C$105</definedName>
+    <definedName name="A128480733V_Latest">Data1!$C$105</definedName>
+    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$105</definedName>
+    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$105</definedName>
+    <definedName name="A128480734W_Latest">Data1!$AL$105</definedName>
+    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$105</definedName>
+    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$105</definedName>
+    <definedName name="A128481587A_Latest">Data1!$AD$105</definedName>
+    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$105</definedName>
+    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$105</definedName>
+    <definedName name="A128481588C_Latest">Data1!$BM$105</definedName>
+    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$105</definedName>
+    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$105</definedName>
+    <definedName name="A128481639T_Latest">Data1!$AH$105</definedName>
+    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$105</definedName>
+    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$105</definedName>
+    <definedName name="A128481640A_Latest">Data1!$BR$105</definedName>
+    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$105</definedName>
+    <definedName name="A128482435J_Data">Data1!$V$11:$V$105</definedName>
+    <definedName name="A128482435J_Latest">Data1!$V$105</definedName>
+    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$105</definedName>
+    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$105</definedName>
+    <definedName name="A128482436K_Latest">Data1!$BE$105</definedName>
+    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$105</definedName>
+    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$105</definedName>
+    <definedName name="A128483461F_Latest">Data1!$AG$105</definedName>
+    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$105</definedName>
+    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$105</definedName>
+    <definedName name="A128483462J_Latest">Data1!$BQ$105</definedName>
+    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$105</definedName>
+    <definedName name="A128484257R_Data">Data1!$L$11:$L$105</definedName>
+    <definedName name="A128484257R_Latest">Data1!$L$105</definedName>
+    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$105</definedName>
+    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$105</definedName>
+    <definedName name="A128484258T_Latest">Data1!$AU$105</definedName>
+    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$105</definedName>
+    <definedName name="A128484685K_Data">Data1!$W$11:$W$105</definedName>
+    <definedName name="A128484685K_Latest">Data1!$W$105</definedName>
+    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$105</definedName>
+    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$105</definedName>
+    <definedName name="A128484686L_Latest">Data1!$BF$105</definedName>
+    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$105</definedName>
+    <definedName name="A128485865L_Data">Data1!$O$11:$O$105</definedName>
+    <definedName name="A128485865L_Latest">Data1!$O$105</definedName>
+    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$105</definedName>
+    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$105</definedName>
+    <definedName name="A128485866R_Latest">Data1!$AX$105</definedName>
+    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$105</definedName>
+    <definedName name="A128485881L_Data">Data1!$T$11:$T$105</definedName>
+    <definedName name="A128485881L_Latest">Data1!$T$105</definedName>
+    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$105</definedName>
+    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$105</definedName>
+    <definedName name="A128485882R_Latest">Data1!$BC$105</definedName>
+    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$105</definedName>
+    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$105</definedName>
+    <definedName name="A130184496J_Latest">Data1!$BN$105</definedName>
+    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$105</definedName>
+    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$105</definedName>
+    <definedName name="A130184497K_Latest">Data1!$BP$105</definedName>
+    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$105</definedName>
+    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$105</definedName>
+    <definedName name="A130184498L_Latest">Data1!$BO$105</definedName>
+    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$105</definedName>
+    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$105</definedName>
+    <definedName name="A130184499R_Latest">Data1!$AE$105</definedName>
+    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$105</definedName>
+    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$105</definedName>
+    <definedName name="A130184501R_Latest">Data1!$AF$105</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$105</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$105</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1196,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD43" authorId="0" shapeId="0">
+    <comment ref="AF24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM43" authorId="0" shapeId="0">
+    <comment ref="BO24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM55" authorId="0" shapeId="0">
+    <comment ref="BO36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD92" authorId="0" shapeId="0">
+    <comment ref="AF55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM92" authorId="0" shapeId="0">
+    <comment ref="BO55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO67" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1301,6 +1353,45 @@
       </text>
     </comment>
     <comment ref="BM102" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF103" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO103" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD104" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2502,10 +2593,10 @@
         <v>42979</v>
       </c>
       <c r="G12" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H12" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>78</v>
@@ -2534,10 +2625,10 @@
         <v>42979</v>
       </c>
       <c r="G13" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H13" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>78</v>
@@ -2566,10 +2657,10 @@
         <v>42979</v>
       </c>
       <c r="G14" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H14" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>78</v>
@@ -2598,10 +2689,10 @@
         <v>42979</v>
       </c>
       <c r="G15" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H15" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>78</v>
@@ -2630,10 +2721,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H16" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>78</v>
@@ -2662,10 +2753,10 @@
         <v>42979</v>
       </c>
       <c r="G17" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H17" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>78</v>
@@ -2694,10 +2785,10 @@
         <v>42979</v>
       </c>
       <c r="G18" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H18" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>78</v>
@@ -2726,10 +2817,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H19" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>78</v>
@@ -2758,10 +2849,10 @@
         <v>42979</v>
       </c>
       <c r="G20" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H20" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>78</v>
@@ -2790,10 +2881,10 @@
         <v>42979</v>
       </c>
       <c r="G21" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H21" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>78</v>
@@ -2822,10 +2913,10 @@
         <v>42979</v>
       </c>
       <c r="G22" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H22" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>78</v>
@@ -2854,10 +2945,10 @@
         <v>42979</v>
       </c>
       <c r="G23" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H23" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>78</v>
@@ -2886,10 +2977,10 @@
         <v>42979</v>
       </c>
       <c r="G24" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H24" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>78</v>
@@ -2918,10 +3009,10 @@
         <v>42979</v>
       </c>
       <c r="G25" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H25" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>78</v>
@@ -2950,10 +3041,10 @@
         <v>42979</v>
       </c>
       <c r="G26" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H26" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>78</v>
@@ -2982,10 +3073,10 @@
         <v>42979</v>
       </c>
       <c r="G27" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H27" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>78</v>
@@ -3014,10 +3105,10 @@
         <v>42979</v>
       </c>
       <c r="G28" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H28" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>78</v>
@@ -3046,10 +3137,10 @@
         <v>42979</v>
       </c>
       <c r="G29" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H29" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>78</v>
@@ -3078,10 +3169,10 @@
         <v>42979</v>
       </c>
       <c r="G30" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H30" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>78</v>
@@ -3110,10 +3201,10 @@
         <v>42979</v>
       </c>
       <c r="G31" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H31" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>78</v>
@@ -3142,10 +3233,10 @@
         <v>42979</v>
       </c>
       <c r="G32" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H32" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>78</v>
@@ -3174,10 +3265,10 @@
         <v>42979</v>
       </c>
       <c r="G33" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H33" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>78</v>
@@ -3206,10 +3297,10 @@
         <v>42979</v>
       </c>
       <c r="G34" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H34" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>78</v>
@@ -3238,10 +3329,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H35" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>78</v>
@@ -3270,10 +3361,10 @@
         <v>42979</v>
       </c>
       <c r="G36" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H36" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>78</v>
@@ -3302,10 +3393,10 @@
         <v>42979</v>
       </c>
       <c r="G37" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H37" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>78</v>
@@ -3334,10 +3425,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H38" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>78</v>
@@ -3366,10 +3457,10 @@
         <v>42979</v>
       </c>
       <c r="G39" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H39" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>78</v>
@@ -3398,10 +3489,10 @@
         <v>42979</v>
       </c>
       <c r="G40" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H40" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>78</v>
@@ -3430,10 +3521,10 @@
         <v>42979</v>
       </c>
       <c r="G41" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H41" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>78</v>
@@ -3462,10 +3553,10 @@
         <v>42979</v>
       </c>
       <c r="G42" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H42" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>78</v>
@@ -3494,10 +3585,10 @@
         <v>42979</v>
       </c>
       <c r="G43" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H43" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>78</v>
@@ -3526,10 +3617,10 @@
         <v>42979</v>
       </c>
       <c r="G44" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H44" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>78</v>
@@ -3558,10 +3649,10 @@
         <v>42979</v>
       </c>
       <c r="G45" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H45" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>78</v>
@@ -3590,10 +3681,10 @@
         <v>42979</v>
       </c>
       <c r="G46" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H46" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>78</v>
@@ -3622,10 +3713,10 @@
         <v>43344</v>
       </c>
       <c r="G47" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H47" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>118</v>
@@ -3654,10 +3745,10 @@
         <v>43344</v>
       </c>
       <c r="G48" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H48" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>118</v>
@@ -3686,10 +3777,10 @@
         <v>43344</v>
       </c>
       <c r="G49" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H49" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>118</v>
@@ -3718,10 +3809,10 @@
         <v>43344</v>
       </c>
       <c r="G50" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H50" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>118</v>
@@ -3750,10 +3841,10 @@
         <v>43344</v>
       </c>
       <c r="G51" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H51" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>118</v>
@@ -3782,10 +3873,10 @@
         <v>43344</v>
       </c>
       <c r="G52" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H52" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>118</v>
@@ -3814,10 +3905,10 @@
         <v>43344</v>
       </c>
       <c r="G53" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H53" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>118</v>
@@ -3846,10 +3937,10 @@
         <v>43344</v>
       </c>
       <c r="G54" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H54" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>118</v>
@@ -3878,10 +3969,10 @@
         <v>43344</v>
       </c>
       <c r="G55" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H55" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>118</v>
@@ -3910,10 +4001,10 @@
         <v>43344</v>
       </c>
       <c r="G56" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H56" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>118</v>
@@ -3942,10 +4033,10 @@
         <v>43344</v>
       </c>
       <c r="G57" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H57" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>118</v>
@@ -3974,10 +4065,10 @@
         <v>43344</v>
       </c>
       <c r="G58" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H58" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>118</v>
@@ -4006,10 +4097,10 @@
         <v>43344</v>
       </c>
       <c r="G59" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H59" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>118</v>
@@ -4038,10 +4129,10 @@
         <v>43344</v>
       </c>
       <c r="G60" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H60" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>118</v>
@@ -4070,10 +4161,10 @@
         <v>43344</v>
       </c>
       <c r="G61" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H61" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>118</v>
@@ -4102,10 +4193,10 @@
         <v>43344</v>
       </c>
       <c r="G62" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H62" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>118</v>
@@ -4134,10 +4225,10 @@
         <v>43344</v>
       </c>
       <c r="G63" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H63" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>118</v>
@@ -4166,10 +4257,10 @@
         <v>43344</v>
       </c>
       <c r="G64" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H64" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>118</v>
@@ -4198,10 +4289,10 @@
         <v>43344</v>
       </c>
       <c r="G65" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H65" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>118</v>
@@ -4230,10 +4321,10 @@
         <v>43344</v>
       </c>
       <c r="G66" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H66" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>118</v>
@@ -4262,10 +4353,10 @@
         <v>43344</v>
       </c>
       <c r="G67" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H67" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>118</v>
@@ -4294,10 +4385,10 @@
         <v>43344</v>
       </c>
       <c r="G68" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H68" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>118</v>
@@ -4326,10 +4417,10 @@
         <v>43344</v>
       </c>
       <c r="G69" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H69" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>118</v>
@@ -4358,10 +4449,10 @@
         <v>43344</v>
       </c>
       <c r="G70" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H70" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>118</v>
@@ -4390,10 +4481,10 @@
         <v>43344</v>
       </c>
       <c r="G71" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H71" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>118</v>
@@ -4422,10 +4513,10 @@
         <v>43344</v>
       </c>
       <c r="G72" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H72" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>118</v>
@@ -4454,10 +4545,10 @@
         <v>43344</v>
       </c>
       <c r="G73" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H73" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>118</v>
@@ -4486,10 +4577,10 @@
         <v>43344</v>
       </c>
       <c r="G74" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H74" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>118</v>
@@ -4518,10 +4609,10 @@
         <v>43344</v>
       </c>
       <c r="G75" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H75" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>118</v>
@@ -4550,10 +4641,10 @@
         <v>43344</v>
       </c>
       <c r="G76" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H76" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>118</v>
@@ -4582,10 +4673,10 @@
         <v>43344</v>
       </c>
       <c r="G77" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H77" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>118</v>
@@ -4614,10 +4705,10 @@
         <v>43344</v>
       </c>
       <c r="G78" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H78" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>118</v>
@@ -4646,10 +4737,10 @@
         <v>43344</v>
       </c>
       <c r="G79" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H79" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>118</v>
@@ -4678,10 +4769,10 @@
         <v>43344</v>
       </c>
       <c r="G80" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H80" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>118</v>
@@ -4710,10 +4801,10 @@
         <v>43344</v>
       </c>
       <c r="G81" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H81" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>118</v>
@@ -4742,10 +4833,10 @@
         <v>43344</v>
       </c>
       <c r="G82" s="9">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H82" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>118</v>
@@ -4851,7 +4942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT104"/>
+  <dimension ref="A1:BT105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6393,217 +6484,217 @@
         <v>75</v>
       </c>
       <c r="B8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="C8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="D8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="E8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="F8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="G8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="H8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="I8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="J8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="K8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="L8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="M8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="N8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="O8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="P8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="Q8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="R8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="S8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="T8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="U8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="V8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="W8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="X8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="Y8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="Z8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AA8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AB8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AC8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AD8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AE8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AF8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AG8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AH8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AI8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AJ8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AK8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AL8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AM8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AN8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AO8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AP8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AQ8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AR8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AS8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AT8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AU8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AV8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AW8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AX8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AY8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="AZ8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BA8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BB8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BC8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BD8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BE8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BF8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BG8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BH8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BI8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BJ8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BK8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BL8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BM8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BN8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BO8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BP8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BQ8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BR8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BS8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="BT8" s="6">
-        <v>45809</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
@@ -6611,217 +6702,217 @@
         <v>76</v>
       </c>
       <c r="B9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AV9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AZ9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BB9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BI9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BJ9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BK9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BL9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BM9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BN9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BO9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BP9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BQ9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BR9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BT9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
@@ -8675,7 +8766,7 @@
         <v>101.3</v>
       </c>
       <c r="AF24" s="8">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AG24" s="8">
         <v>103.2</v>
@@ -8780,7 +8871,7 @@
         <v>1.4</v>
       </c>
       <c r="BO24" s="8">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BP24" s="8">
         <v>1.9</v>
@@ -11396,7 +11487,7 @@
         <v>1.9</v>
       </c>
       <c r="BO36" s="8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BP36" s="8">
         <v>1.6</v>
@@ -15433,7 +15524,7 @@
         <v>106</v>
       </c>
       <c r="AF55" s="8">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AG55" s="8">
         <v>107.9</v>
@@ -15538,7 +15629,7 @@
         <v>3</v>
       </c>
       <c r="BO55" s="8">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="BP55" s="8">
         <v>1.5</v>
@@ -18154,7 +18245,7 @@
         <v>5.2</v>
       </c>
       <c r="BO67" s="8">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BP67" s="8">
         <v>4.3</v>
@@ -18703,7 +18794,7 @@
         <v>113.7</v>
       </c>
       <c r="AF70" s="8">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="AG70" s="8">
         <v>119.4</v>
@@ -18808,7 +18899,7 @@
         <v>6.6</v>
       </c>
       <c r="BO70" s="8">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="BP70" s="8">
         <v>5.9</v>
@@ -21424,7 +21515,7 @@
         <v>5.5</v>
       </c>
       <c r="BO82" s="8">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BP82" s="8">
         <v>5.6</v>
@@ -25019,7 +25110,7 @@
         <v>123.9</v>
       </c>
       <c r="AD99" s="8">
-        <v>125.5</v>
+        <v>125.6</v>
       </c>
       <c r="AE99" s="8">
         <v>124.5</v>
@@ -25124,7 +25215,7 @@
         <v>2.7</v>
       </c>
       <c r="BM99" s="8">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BN99" s="8">
         <v>2.9</v>
@@ -25673,7 +25764,7 @@
         <v>125.7</v>
       </c>
       <c r="AD102" s="8">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="AE102" s="8">
         <v>126.5</v>
@@ -25778,7 +25869,7 @@
         <v>2.9</v>
       </c>
       <c r="BM102" s="8">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="BN102" s="8">
         <v>2.8</v>
@@ -25897,7 +25988,7 @@
         <v>126.7</v>
       </c>
       <c r="AF103" s="8">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="AG103" s="8">
         <v>129.1</v>
@@ -26002,7 +26093,7 @@
         <v>2.7</v>
       </c>
       <c r="BO103" s="8">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BP103" s="8">
         <v>2.4</v>
@@ -26109,7 +26200,7 @@
         <v>125.5</v>
       </c>
       <c r="AD104" s="8">
-        <v>126.8</v>
+        <v>126.7</v>
       </c>
       <c r="AE104" s="8">
         <v>126.6</v>
@@ -26236,6 +26327,224 @@
       </c>
       <c r="BT104" s="8">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
+        <v>45839</v>
+      </c>
+      <c r="B105" s="8">
+        <v>127.7</v>
+      </c>
+      <c r="C105" s="8">
+        <v>134</v>
+      </c>
+      <c r="D105" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="E105" s="8">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="F105" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="G105" s="8">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="H105" s="8">
+        <v>134.6</v>
+      </c>
+      <c r="I105" s="8">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="J105" s="8">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="K105" s="8">
+        <v>121.6</v>
+      </c>
+      <c r="L105" s="8">
+        <v>224.6</v>
+      </c>
+      <c r="M105" s="8">
+        <v>107.3</v>
+      </c>
+      <c r="N105" s="8">
+        <v>102.3</v>
+      </c>
+      <c r="O105" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="P105" s="8">
+        <v>121.6</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="R105" s="8">
+        <v>118.8</v>
+      </c>
+      <c r="S105" s="8">
+        <v>145.6</v>
+      </c>
+      <c r="T105" s="8">
+        <v>118.5</v>
+      </c>
+      <c r="U105" s="8">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="V105" s="8">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="W105" s="8">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="X105" s="8">
+        <v>91.6</v>
+      </c>
+      <c r="Y105" s="8">
+        <v>113.9</v>
+      </c>
+      <c r="Z105" s="8">
+        <v>120.9</v>
+      </c>
+      <c r="AA105" s="8">
+        <v>133.1</v>
+      </c>
+      <c r="AB105" s="8">
+        <v>128.1</v>
+      </c>
+      <c r="AC105" s="8">
+        <v>126.7</v>
+      </c>
+      <c r="AD105" s="8">
+        <v>127.9</v>
+      </c>
+      <c r="AE105" s="8">
+        <v>127.6</v>
+      </c>
+      <c r="AF105" s="8">
+        <v>127.6</v>
+      </c>
+      <c r="AG105" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="AH105" s="8">
+        <v>123.7</v>
+      </c>
+      <c r="AI105" s="8">
+        <v>120</v>
+      </c>
+      <c r="AJ105" s="8">
+        <v>131.9</v>
+      </c>
+      <c r="AK105" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="AL105" s="8">
+        <v>3</v>
+      </c>
+      <c r="AM105" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AN105" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="AO105" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AP105" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="AQ105" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="AR105" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="AS105" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="AT105" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="AU105" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="AV105" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW105" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AX105" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="AY105" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="AZ105" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BA105" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="BB105" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="BC105" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BD105" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE105" s="8">
+        <v>-1</v>
+      </c>
+      <c r="BF105" s="8">
+        <v>-5.5</v>
+      </c>
+      <c r="BG105" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="BH105" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="BI105" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="BJ105" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="BK105" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="BL105" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="BM105" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="BN105" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="BO105" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="BP105" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="BQ105" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BR105" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="BS105" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BT105" s="8">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/ABS/Full_Sheets/648401.xlsx
+++ b/User_Data/ABS/Full_Sheets/648401.xlsx
@@ -17,221 +17,221 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$105</definedName>
-    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$105</definedName>
-    <definedName name="A128473239F_Latest">Data1!$AC$105</definedName>
-    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$105</definedName>
-    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$105</definedName>
-    <definedName name="A128473240R_Latest">Data1!$BL$105</definedName>
-    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$105</definedName>
-    <definedName name="A128473315W_Data">Data1!$U$11:$U$105</definedName>
-    <definedName name="A128473315W_Latest">Data1!$U$105</definedName>
-    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$105</definedName>
-    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$105</definedName>
-    <definedName name="A128473316X_Latest">Data1!$BD$105</definedName>
-    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$105</definedName>
-    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$105</definedName>
-    <definedName name="A128473361K_Latest">Data1!$AA$105</definedName>
-    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$105</definedName>
-    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$105</definedName>
-    <definedName name="A128473362L_Latest">Data1!$BJ$105</definedName>
-    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$105</definedName>
-    <definedName name="A128473449C_Data">Data1!$P$11:$P$105</definedName>
-    <definedName name="A128473449C_Latest">Data1!$P$105</definedName>
-    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$105</definedName>
-    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$105</definedName>
-    <definedName name="A128473450L_Latest">Data1!$AY$105</definedName>
-    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$105</definedName>
-    <definedName name="A128473623X_Data">Data1!$I$11:$I$105</definedName>
-    <definedName name="A128473623X_Latest">Data1!$I$105</definedName>
-    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$105</definedName>
-    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$105</definedName>
-    <definedName name="A128473624A_Latest">Data1!$AR$105</definedName>
-    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$105</definedName>
-    <definedName name="A128474303F_Data">Data1!$R$11:$R$105</definedName>
-    <definedName name="A128474303F_Latest">Data1!$R$105</definedName>
-    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$105</definedName>
-    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$105</definedName>
-    <definedName name="A128474304J_Latest">Data1!$BA$105</definedName>
-    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$105</definedName>
-    <definedName name="A128475063X_Data">Data1!$X$11:$X$105</definedName>
-    <definedName name="A128475063X_Latest">Data1!$X$105</definedName>
-    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$105</definedName>
-    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$105</definedName>
-    <definedName name="A128475064A_Latest">Data1!$BG$105</definedName>
-    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$105</definedName>
-    <definedName name="A128475329W_Data">Data1!$H$11:$H$105</definedName>
-    <definedName name="A128475329W_Latest">Data1!$H$105</definedName>
-    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$105</definedName>
-    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$105</definedName>
-    <definedName name="A128475330F_Latest">Data1!$AQ$105</definedName>
-    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$105</definedName>
-    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$105</definedName>
-    <definedName name="A128475405L_Latest">Data1!$Q$105</definedName>
-    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$105</definedName>
-    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$105</definedName>
-    <definedName name="A128475406R_Latest">Data1!$AZ$105</definedName>
-    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$105</definedName>
-    <definedName name="A128475583C_Data">Data1!$M$11:$M$105</definedName>
-    <definedName name="A128475583C_Latest">Data1!$M$105</definedName>
-    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$105</definedName>
-    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$105</definedName>
-    <definedName name="A128475584F_Latest">Data1!$AV$105</definedName>
-    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$105</definedName>
-    <definedName name="A128475629X_Data">Data1!$D$11:$D$105</definedName>
-    <definedName name="A128475629X_Latest">Data1!$D$105</definedName>
-    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$105</definedName>
-    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$105</definedName>
-    <definedName name="A128475630J_Latest">Data1!$AM$105</definedName>
-    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$105</definedName>
-    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$105</definedName>
-    <definedName name="A128475797K_Latest">Data1!$Z$105</definedName>
-    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$105</definedName>
-    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$105</definedName>
-    <definedName name="A128475798L_Latest">Data1!$BI$105</definedName>
-    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$105</definedName>
-    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$105</definedName>
-    <definedName name="A128476505R_Latest">Data1!$AI$105</definedName>
-    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$105</definedName>
-    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$105</definedName>
-    <definedName name="A128476506T_Latest">Data1!$BS$105</definedName>
-    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$105</definedName>
-    <definedName name="A128476849V_Data">Data1!$S$11:$S$105</definedName>
-    <definedName name="A128476849V_Latest">Data1!$S$105</definedName>
-    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$105</definedName>
-    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$105</definedName>
-    <definedName name="A128476850C_Latest">Data1!$BB$105</definedName>
-    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$105</definedName>
-    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$105</definedName>
-    <definedName name="A128477043A_Latest">Data1!$AB$105</definedName>
-    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$105</definedName>
-    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$105</definedName>
-    <definedName name="A128477044C_Latest">Data1!$BK$105</definedName>
-    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$105</definedName>
-    <definedName name="A128477399R_Data">Data1!$J$11:$J$105</definedName>
-    <definedName name="A128477399R_Latest">Data1!$J$105</definedName>
-    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$105</definedName>
-    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$105</definedName>
-    <definedName name="A128477400L_Latest">Data1!$AS$105</definedName>
-    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$105</definedName>
-    <definedName name="A128477405X_Data">Data1!$F$11:$F$105</definedName>
-    <definedName name="A128477405X_Latest">Data1!$F$105</definedName>
-    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$105</definedName>
-    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$105</definedName>
-    <definedName name="A128477406A_Latest">Data1!$AO$105</definedName>
-    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$105</definedName>
-    <definedName name="A128478317T_Data">Data1!$B$11:$B$105</definedName>
-    <definedName name="A128478317T_Latest">Data1!$B$105</definedName>
-    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$105</definedName>
-    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$105</definedName>
-    <definedName name="A128478318V_Latest">Data1!$AK$105</definedName>
-    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$105</definedName>
-    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$105</definedName>
-    <definedName name="A128478473V_Latest">Data1!$Y$105</definedName>
-    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$105</definedName>
-    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$105</definedName>
-    <definedName name="A128478474W_Latest">Data1!$BH$105</definedName>
-    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$105</definedName>
-    <definedName name="A128478847A_Data">Data1!$N$11:$N$105</definedName>
-    <definedName name="A128478847A_Latest">Data1!$N$105</definedName>
-    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$105</definedName>
-    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$105</definedName>
-    <definedName name="A128478848C_Latest">Data1!$AW$105</definedName>
-    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$105</definedName>
-    <definedName name="A128479215W_Data">Data1!$E$11:$E$105</definedName>
-    <definedName name="A128479215W_Latest">Data1!$E$105</definedName>
-    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$105</definedName>
-    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$105</definedName>
-    <definedName name="A128479216X_Latest">Data1!$AN$105</definedName>
-    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$105</definedName>
-    <definedName name="A128479281V_Data">Data1!$K$11:$K$105</definedName>
-    <definedName name="A128479281V_Latest">Data1!$K$105</definedName>
-    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$105</definedName>
-    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$105</definedName>
-    <definedName name="A128479282W_Latest">Data1!$AT$105</definedName>
-    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$105</definedName>
-    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$105</definedName>
-    <definedName name="A128480133R_Latest">Data1!$AJ$105</definedName>
-    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$105</definedName>
-    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$105</definedName>
-    <definedName name="A128480134T_Latest">Data1!$BT$105</definedName>
-    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$105</definedName>
-    <definedName name="A128480215V_Data">Data1!$G$11:$G$105</definedName>
-    <definedName name="A128480215V_Latest">Data1!$G$105</definedName>
-    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$105</definedName>
-    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$105</definedName>
-    <definedName name="A128480216W_Latest">Data1!$AP$105</definedName>
-    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$105</definedName>
-    <definedName name="A128480733V_Data">Data1!$C$11:$C$105</definedName>
-    <definedName name="A128480733V_Latest">Data1!$C$105</definedName>
-    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$105</definedName>
-    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$105</definedName>
-    <definedName name="A128480734W_Latest">Data1!$AL$105</definedName>
-    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$105</definedName>
-    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$105</definedName>
-    <definedName name="A128481587A_Latest">Data1!$AD$105</definedName>
-    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$105</definedName>
-    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$105</definedName>
-    <definedName name="A128481588C_Latest">Data1!$BM$105</definedName>
-    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$105</definedName>
-    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$105</definedName>
-    <definedName name="A128481639T_Latest">Data1!$AH$105</definedName>
-    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$105</definedName>
-    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$105</definedName>
-    <definedName name="A128481640A_Latest">Data1!$BR$105</definedName>
-    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$105</definedName>
-    <definedName name="A128482435J_Data">Data1!$V$11:$V$105</definedName>
-    <definedName name="A128482435J_Latest">Data1!$V$105</definedName>
-    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$105</definedName>
-    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$105</definedName>
-    <definedName name="A128482436K_Latest">Data1!$BE$105</definedName>
-    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$105</definedName>
-    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$105</definedName>
-    <definedName name="A128483461F_Latest">Data1!$AG$105</definedName>
-    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$105</definedName>
-    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$105</definedName>
-    <definedName name="A128483462J_Latest">Data1!$BQ$105</definedName>
-    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$105</definedName>
-    <definedName name="A128484257R_Data">Data1!$L$11:$L$105</definedName>
-    <definedName name="A128484257R_Latest">Data1!$L$105</definedName>
-    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$105</definedName>
-    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$105</definedName>
-    <definedName name="A128484258T_Latest">Data1!$AU$105</definedName>
-    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$105</definedName>
-    <definedName name="A128484685K_Data">Data1!$W$11:$W$105</definedName>
-    <definedName name="A128484685K_Latest">Data1!$W$105</definedName>
-    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$105</definedName>
-    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$105</definedName>
-    <definedName name="A128484686L_Latest">Data1!$BF$105</definedName>
-    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$105</definedName>
-    <definedName name="A128485865L_Data">Data1!$O$11:$O$105</definedName>
-    <definedName name="A128485865L_Latest">Data1!$O$105</definedName>
-    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$105</definedName>
-    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$105</definedName>
-    <definedName name="A128485866R_Latest">Data1!$AX$105</definedName>
-    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$105</definedName>
-    <definedName name="A128485881L_Data">Data1!$T$11:$T$105</definedName>
-    <definedName name="A128485881L_Latest">Data1!$T$105</definedName>
-    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$105</definedName>
-    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$105</definedName>
-    <definedName name="A128485882R_Latest">Data1!$BC$105</definedName>
-    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$105</definedName>
-    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$105</definedName>
-    <definedName name="A130184496J_Latest">Data1!$BN$105</definedName>
-    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$105</definedName>
-    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$105</definedName>
-    <definedName name="A130184497K_Latest">Data1!$BP$105</definedName>
-    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$105</definedName>
-    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$105</definedName>
-    <definedName name="A130184498L_Latest">Data1!$BO$105</definedName>
-    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$105</definedName>
-    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$105</definedName>
-    <definedName name="A130184499R_Latest">Data1!$AE$105</definedName>
-    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$105</definedName>
-    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$105</definedName>
-    <definedName name="A130184501R_Latest">Data1!$AF$105</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$105</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$105</definedName>
+    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$106</definedName>
+    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$106</definedName>
+    <definedName name="A128473239F_Latest">Data1!$AC$106</definedName>
+    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$106</definedName>
+    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$106</definedName>
+    <definedName name="A128473240R_Latest">Data1!$BL$106</definedName>
+    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$106</definedName>
+    <definedName name="A128473315W_Data">Data1!$U$11:$U$106</definedName>
+    <definedName name="A128473315W_Latest">Data1!$U$106</definedName>
+    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$106</definedName>
+    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$106</definedName>
+    <definedName name="A128473316X_Latest">Data1!$BD$106</definedName>
+    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$106</definedName>
+    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$106</definedName>
+    <definedName name="A128473361K_Latest">Data1!$AA$106</definedName>
+    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$106</definedName>
+    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$106</definedName>
+    <definedName name="A128473362L_Latest">Data1!$BJ$106</definedName>
+    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$106</definedName>
+    <definedName name="A128473449C_Data">Data1!$P$11:$P$106</definedName>
+    <definedName name="A128473449C_Latest">Data1!$P$106</definedName>
+    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$106</definedName>
+    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$106</definedName>
+    <definedName name="A128473450L_Latest">Data1!$AY$106</definedName>
+    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$106</definedName>
+    <definedName name="A128473623X_Data">Data1!$I$11:$I$106</definedName>
+    <definedName name="A128473623X_Latest">Data1!$I$106</definedName>
+    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$106</definedName>
+    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$106</definedName>
+    <definedName name="A128473624A_Latest">Data1!$AR$106</definedName>
+    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$106</definedName>
+    <definedName name="A128474303F_Data">Data1!$R$11:$R$106</definedName>
+    <definedName name="A128474303F_Latest">Data1!$R$106</definedName>
+    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$106</definedName>
+    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$106</definedName>
+    <definedName name="A128474304J_Latest">Data1!$BA$106</definedName>
+    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$106</definedName>
+    <definedName name="A128475063X_Data">Data1!$X$11:$X$106</definedName>
+    <definedName name="A128475063X_Latest">Data1!$X$106</definedName>
+    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$106</definedName>
+    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$106</definedName>
+    <definedName name="A128475064A_Latest">Data1!$BG$106</definedName>
+    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$106</definedName>
+    <definedName name="A128475329W_Data">Data1!$H$11:$H$106</definedName>
+    <definedName name="A128475329W_Latest">Data1!$H$106</definedName>
+    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$106</definedName>
+    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$106</definedName>
+    <definedName name="A128475330F_Latest">Data1!$AQ$106</definedName>
+    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$106</definedName>
+    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$106</definedName>
+    <definedName name="A128475405L_Latest">Data1!$Q$106</definedName>
+    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$106</definedName>
+    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$106</definedName>
+    <definedName name="A128475406R_Latest">Data1!$AZ$106</definedName>
+    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$106</definedName>
+    <definedName name="A128475583C_Data">Data1!$M$11:$M$106</definedName>
+    <definedName name="A128475583C_Latest">Data1!$M$106</definedName>
+    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$106</definedName>
+    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$106</definedName>
+    <definedName name="A128475584F_Latest">Data1!$AV$106</definedName>
+    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$106</definedName>
+    <definedName name="A128475629X_Data">Data1!$D$11:$D$106</definedName>
+    <definedName name="A128475629X_Latest">Data1!$D$106</definedName>
+    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$106</definedName>
+    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$106</definedName>
+    <definedName name="A128475630J_Latest">Data1!$AM$106</definedName>
+    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$106</definedName>
+    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$106</definedName>
+    <definedName name="A128475797K_Latest">Data1!$Z$106</definedName>
+    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$106</definedName>
+    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$106</definedName>
+    <definedName name="A128475798L_Latest">Data1!$BI$106</definedName>
+    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$106</definedName>
+    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$106</definedName>
+    <definedName name="A128476505R_Latest">Data1!$AI$106</definedName>
+    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$106</definedName>
+    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$106</definedName>
+    <definedName name="A128476506T_Latest">Data1!$BS$106</definedName>
+    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$106</definedName>
+    <definedName name="A128476849V_Data">Data1!$S$11:$S$106</definedName>
+    <definedName name="A128476849V_Latest">Data1!$S$106</definedName>
+    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$106</definedName>
+    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$106</definedName>
+    <definedName name="A128476850C_Latest">Data1!$BB$106</definedName>
+    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$106</definedName>
+    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$106</definedName>
+    <definedName name="A128477043A_Latest">Data1!$AB$106</definedName>
+    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$106</definedName>
+    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$106</definedName>
+    <definedName name="A128477044C_Latest">Data1!$BK$106</definedName>
+    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$106</definedName>
+    <definedName name="A128477399R_Data">Data1!$J$11:$J$106</definedName>
+    <definedName name="A128477399R_Latest">Data1!$J$106</definedName>
+    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$106</definedName>
+    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$106</definedName>
+    <definedName name="A128477400L_Latest">Data1!$AS$106</definedName>
+    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$106</definedName>
+    <definedName name="A128477405X_Data">Data1!$F$11:$F$106</definedName>
+    <definedName name="A128477405X_Latest">Data1!$F$106</definedName>
+    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$106</definedName>
+    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$106</definedName>
+    <definedName name="A128477406A_Latest">Data1!$AO$106</definedName>
+    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$106</definedName>
+    <definedName name="A128478317T_Data">Data1!$B$11:$B$106</definedName>
+    <definedName name="A128478317T_Latest">Data1!$B$106</definedName>
+    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$106</definedName>
+    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$106</definedName>
+    <definedName name="A128478318V_Latest">Data1!$AK$106</definedName>
+    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$106</definedName>
+    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$106</definedName>
+    <definedName name="A128478473V_Latest">Data1!$Y$106</definedName>
+    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$106</definedName>
+    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$106</definedName>
+    <definedName name="A128478474W_Latest">Data1!$BH$106</definedName>
+    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$106</definedName>
+    <definedName name="A128478847A_Data">Data1!$N$11:$N$106</definedName>
+    <definedName name="A128478847A_Latest">Data1!$N$106</definedName>
+    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$106</definedName>
+    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$106</definedName>
+    <definedName name="A128478848C_Latest">Data1!$AW$106</definedName>
+    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$106</definedName>
+    <definedName name="A128479215W_Data">Data1!$E$11:$E$106</definedName>
+    <definedName name="A128479215W_Latest">Data1!$E$106</definedName>
+    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$106</definedName>
+    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$106</definedName>
+    <definedName name="A128479216X_Latest">Data1!$AN$106</definedName>
+    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$106</definedName>
+    <definedName name="A128479281V_Data">Data1!$K$11:$K$106</definedName>
+    <definedName name="A128479281V_Latest">Data1!$K$106</definedName>
+    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$106</definedName>
+    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$106</definedName>
+    <definedName name="A128479282W_Latest">Data1!$AT$106</definedName>
+    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$106</definedName>
+    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$106</definedName>
+    <definedName name="A128480133R_Latest">Data1!$AJ$106</definedName>
+    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$106</definedName>
+    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$106</definedName>
+    <definedName name="A128480134T_Latest">Data1!$BT$106</definedName>
+    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$106</definedName>
+    <definedName name="A128480215V_Data">Data1!$G$11:$G$106</definedName>
+    <definedName name="A128480215V_Latest">Data1!$G$106</definedName>
+    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$106</definedName>
+    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$106</definedName>
+    <definedName name="A128480216W_Latest">Data1!$AP$106</definedName>
+    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$106</definedName>
+    <definedName name="A128480733V_Data">Data1!$C$11:$C$106</definedName>
+    <definedName name="A128480733V_Latest">Data1!$C$106</definedName>
+    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$106</definedName>
+    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$106</definedName>
+    <definedName name="A128480734W_Latest">Data1!$AL$106</definedName>
+    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$106</definedName>
+    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$106</definedName>
+    <definedName name="A128481587A_Latest">Data1!$AD$106</definedName>
+    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$106</definedName>
+    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$106</definedName>
+    <definedName name="A128481588C_Latest">Data1!$BM$106</definedName>
+    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$106</definedName>
+    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$106</definedName>
+    <definedName name="A128481639T_Latest">Data1!$AH$106</definedName>
+    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$106</definedName>
+    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$106</definedName>
+    <definedName name="A128481640A_Latest">Data1!$BR$106</definedName>
+    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$106</definedName>
+    <definedName name="A128482435J_Data">Data1!$V$11:$V$106</definedName>
+    <definedName name="A128482435J_Latest">Data1!$V$106</definedName>
+    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$106</definedName>
+    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$106</definedName>
+    <definedName name="A128482436K_Latest">Data1!$BE$106</definedName>
+    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$106</definedName>
+    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$106</definedName>
+    <definedName name="A128483461F_Latest">Data1!$AG$106</definedName>
+    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$106</definedName>
+    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$106</definedName>
+    <definedName name="A128483462J_Latest">Data1!$BQ$106</definedName>
+    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$106</definedName>
+    <definedName name="A128484257R_Data">Data1!$L$11:$L$106</definedName>
+    <definedName name="A128484257R_Latest">Data1!$L$106</definedName>
+    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$106</definedName>
+    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$106</definedName>
+    <definedName name="A128484258T_Latest">Data1!$AU$106</definedName>
+    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$106</definedName>
+    <definedName name="A128484685K_Data">Data1!$W$11:$W$106</definedName>
+    <definedName name="A128484685K_Latest">Data1!$W$106</definedName>
+    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$106</definedName>
+    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$106</definedName>
+    <definedName name="A128484686L_Latest">Data1!$BF$106</definedName>
+    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$106</definedName>
+    <definedName name="A128485865L_Data">Data1!$O$11:$O$106</definedName>
+    <definedName name="A128485865L_Latest">Data1!$O$106</definedName>
+    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$106</definedName>
+    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$106</definedName>
+    <definedName name="A128485866R_Latest">Data1!$AX$106</definedName>
+    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$106</definedName>
+    <definedName name="A128485881L_Data">Data1!$T$11:$T$106</definedName>
+    <definedName name="A128485881L_Latest">Data1!$T$106</definedName>
+    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$106</definedName>
+    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$106</definedName>
+    <definedName name="A128485882R_Latest">Data1!$BC$106</definedName>
+    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$106</definedName>
+    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$106</definedName>
+    <definedName name="A130184496J_Latest">Data1!$BN$106</definedName>
+    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$106</definedName>
+    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$106</definedName>
+    <definedName name="A130184497K_Latest">Data1!$BP$106</definedName>
+    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$106</definedName>
+    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$106</definedName>
+    <definedName name="A130184498L_Latest">Data1!$BO$106</definedName>
+    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$106</definedName>
+    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$106</definedName>
+    <definedName name="A130184499R_Latest">Data1!$AE$106</definedName>
+    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$106</definedName>
+    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$106</definedName>
+    <definedName name="A130184501R_Latest">Data1!$AF$106</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$106</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1196,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF24" authorId="0" shapeId="0">
+    <comment ref="AF83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO24" authorId="0" shapeId="0">
+    <comment ref="BO83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO36" authorId="0" shapeId="0">
+    <comment ref="AF94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF55" authorId="0" shapeId="0">
+    <comment ref="BO94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO55" authorId="0" shapeId="0">
+    <comment ref="BO95" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO67" authorId="0" shapeId="0">
+    <comment ref="R105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF70" authorId="0" shapeId="0">
+    <comment ref="AF105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO70" authorId="0" shapeId="0">
+    <comment ref="BA105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,98 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO82" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD99" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BM99" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD102" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BM102" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF103" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BO103" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD104" authorId="0" shapeId="0">
+    <comment ref="BO105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2593,10 +2502,10 @@
         <v>42979</v>
       </c>
       <c r="G12" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H12" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>78</v>
@@ -2625,10 +2534,10 @@
         <v>42979</v>
       </c>
       <c r="G13" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H13" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>78</v>
@@ -2657,10 +2566,10 @@
         <v>42979</v>
       </c>
       <c r="G14" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H14" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>78</v>
@@ -2689,10 +2598,10 @@
         <v>42979</v>
       </c>
       <c r="G15" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H15" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>78</v>
@@ -2721,10 +2630,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H16" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>78</v>
@@ -2753,10 +2662,10 @@
         <v>42979</v>
       </c>
       <c r="G17" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H17" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>78</v>
@@ -2785,10 +2694,10 @@
         <v>42979</v>
       </c>
       <c r="G18" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H18" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>78</v>
@@ -2817,10 +2726,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H19" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>78</v>
@@ -2849,10 +2758,10 @@
         <v>42979</v>
       </c>
       <c r="G20" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H20" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>78</v>
@@ -2881,10 +2790,10 @@
         <v>42979</v>
       </c>
       <c r="G21" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H21" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>78</v>
@@ -2913,10 +2822,10 @@
         <v>42979</v>
       </c>
       <c r="G22" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H22" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>78</v>
@@ -2945,10 +2854,10 @@
         <v>42979</v>
       </c>
       <c r="G23" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H23" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>78</v>
@@ -2977,10 +2886,10 @@
         <v>42979</v>
       </c>
       <c r="G24" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H24" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>78</v>
@@ -3009,10 +2918,10 @@
         <v>42979</v>
       </c>
       <c r="G25" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H25" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>78</v>
@@ -3041,10 +2950,10 @@
         <v>42979</v>
       </c>
       <c r="G26" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H26" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>78</v>
@@ -3073,10 +2982,10 @@
         <v>42979</v>
       </c>
       <c r="G27" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H27" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>78</v>
@@ -3105,10 +3014,10 @@
         <v>42979</v>
       </c>
       <c r="G28" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H28" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>78</v>
@@ -3137,10 +3046,10 @@
         <v>42979</v>
       </c>
       <c r="G29" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H29" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>78</v>
@@ -3169,10 +3078,10 @@
         <v>42979</v>
       </c>
       <c r="G30" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H30" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>78</v>
@@ -3201,10 +3110,10 @@
         <v>42979</v>
       </c>
       <c r="G31" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H31" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>78</v>
@@ -3233,10 +3142,10 @@
         <v>42979</v>
       </c>
       <c r="G32" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H32" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>78</v>
@@ -3265,10 +3174,10 @@
         <v>42979</v>
       </c>
       <c r="G33" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H33" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>78</v>
@@ -3297,10 +3206,10 @@
         <v>42979</v>
       </c>
       <c r="G34" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H34" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>78</v>
@@ -3329,10 +3238,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H35" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>78</v>
@@ -3361,10 +3270,10 @@
         <v>42979</v>
       </c>
       <c r="G36" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H36" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>78</v>
@@ -3393,10 +3302,10 @@
         <v>42979</v>
       </c>
       <c r="G37" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H37" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>78</v>
@@ -3425,10 +3334,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H38" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>78</v>
@@ -3457,10 +3366,10 @@
         <v>42979</v>
       </c>
       <c r="G39" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H39" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>78</v>
@@ -3489,10 +3398,10 @@
         <v>42979</v>
       </c>
       <c r="G40" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H40" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>78</v>
@@ -3521,10 +3430,10 @@
         <v>42979</v>
       </c>
       <c r="G41" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H41" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>78</v>
@@ -3553,10 +3462,10 @@
         <v>42979</v>
       </c>
       <c r="G42" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H42" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>78</v>
@@ -3585,10 +3494,10 @@
         <v>42979</v>
       </c>
       <c r="G43" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H43" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>78</v>
@@ -3617,10 +3526,10 @@
         <v>42979</v>
       </c>
       <c r="G44" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H44" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>78</v>
@@ -3649,10 +3558,10 @@
         <v>42979</v>
       </c>
       <c r="G45" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H45" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>78</v>
@@ -3681,10 +3590,10 @@
         <v>42979</v>
       </c>
       <c r="G46" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H46" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>78</v>
@@ -3713,10 +3622,10 @@
         <v>43344</v>
       </c>
       <c r="G47" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H47" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>118</v>
@@ -3745,10 +3654,10 @@
         <v>43344</v>
       </c>
       <c r="G48" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H48" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>118</v>
@@ -3777,10 +3686,10 @@
         <v>43344</v>
       </c>
       <c r="G49" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H49" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>118</v>
@@ -3809,10 +3718,10 @@
         <v>43344</v>
       </c>
       <c r="G50" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H50" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>118</v>
@@ -3841,10 +3750,10 @@
         <v>43344</v>
       </c>
       <c r="G51" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H51" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>118</v>
@@ -3873,10 +3782,10 @@
         <v>43344</v>
       </c>
       <c r="G52" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H52" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>118</v>
@@ -3905,10 +3814,10 @@
         <v>43344</v>
       </c>
       <c r="G53" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H53" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>118</v>
@@ -3937,10 +3846,10 @@
         <v>43344</v>
       </c>
       <c r="G54" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H54" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>118</v>
@@ -3969,10 +3878,10 @@
         <v>43344</v>
       </c>
       <c r="G55" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H55" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>118</v>
@@ -4001,10 +3910,10 @@
         <v>43344</v>
       </c>
       <c r="G56" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H56" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>118</v>
@@ -4033,10 +3942,10 @@
         <v>43344</v>
       </c>
       <c r="G57" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H57" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>118</v>
@@ -4065,10 +3974,10 @@
         <v>43344</v>
       </c>
       <c r="G58" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H58" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>118</v>
@@ -4097,10 +4006,10 @@
         <v>43344</v>
       </c>
       <c r="G59" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H59" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>118</v>
@@ -4129,10 +4038,10 @@
         <v>43344</v>
       </c>
       <c r="G60" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H60" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>118</v>
@@ -4161,10 +4070,10 @@
         <v>43344</v>
       </c>
       <c r="G61" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H61" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>118</v>
@@ -4193,10 +4102,10 @@
         <v>43344</v>
       </c>
       <c r="G62" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H62" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>118</v>
@@ -4225,10 +4134,10 @@
         <v>43344</v>
       </c>
       <c r="G63" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H63" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>118</v>
@@ -4257,10 +4166,10 @@
         <v>43344</v>
       </c>
       <c r="G64" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H64" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>118</v>
@@ -4289,10 +4198,10 @@
         <v>43344</v>
       </c>
       <c r="G65" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H65" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>118</v>
@@ -4321,10 +4230,10 @@
         <v>43344</v>
       </c>
       <c r="G66" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H66" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>118</v>
@@ -4353,10 +4262,10 @@
         <v>43344</v>
       </c>
       <c r="G67" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H67" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>118</v>
@@ -4385,10 +4294,10 @@
         <v>43344</v>
       </c>
       <c r="G68" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H68" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>118</v>
@@ -4417,10 +4326,10 @@
         <v>43344</v>
       </c>
       <c r="G69" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H69" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>118</v>
@@ -4449,10 +4358,10 @@
         <v>43344</v>
       </c>
       <c r="G70" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H70" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>118</v>
@@ -4481,10 +4390,10 @@
         <v>43344</v>
       </c>
       <c r="G71" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H71" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>118</v>
@@ -4513,10 +4422,10 @@
         <v>43344</v>
       </c>
       <c r="G72" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H72" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>118</v>
@@ -4545,10 +4454,10 @@
         <v>43344</v>
       </c>
       <c r="G73" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H73" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>118</v>
@@ -4577,10 +4486,10 @@
         <v>43344</v>
       </c>
       <c r="G74" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H74" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>118</v>
@@ -4609,10 +4518,10 @@
         <v>43344</v>
       </c>
       <c r="G75" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H75" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>118</v>
@@ -4641,10 +4550,10 @@
         <v>43344</v>
       </c>
       <c r="G76" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H76" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>118</v>
@@ -4673,10 +4582,10 @@
         <v>43344</v>
       </c>
       <c r="G77" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H77" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>118</v>
@@ -4705,10 +4614,10 @@
         <v>43344</v>
       </c>
       <c r="G78" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H78" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>118</v>
@@ -4737,10 +4646,10 @@
         <v>43344</v>
       </c>
       <c r="G79" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H79" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>118</v>
@@ -4769,10 +4678,10 @@
         <v>43344</v>
       </c>
       <c r="G80" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H80" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>118</v>
@@ -4801,10 +4710,10 @@
         <v>43344</v>
       </c>
       <c r="G81" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H81" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>118</v>
@@ -4833,10 +4742,10 @@
         <v>43344</v>
       </c>
       <c r="G82" s="9">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H82" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>118</v>
@@ -4942,7 +4851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT105"/>
+  <dimension ref="A1:BT106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6484,217 +6393,217 @@
         <v>75</v>
       </c>
       <c r="B8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="C8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="D8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="E8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="F8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="H8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="I8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="J8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="K8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="L8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="M8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="N8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="O8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="P8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="Q8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="R8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="S8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="T8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="U8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="V8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="W8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="X8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="Y8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="Z8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AA8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AB8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AC8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AD8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AE8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AF8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AG8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AH8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AI8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AJ8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AK8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AL8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AM8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AN8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AO8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AP8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AQ8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AR8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AS8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AT8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AU8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AV8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AW8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AX8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AY8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="AZ8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BA8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BB8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BC8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BD8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BE8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BF8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BG8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BH8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BI8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BJ8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BK8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BL8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BM8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BN8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BO8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BP8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BQ8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BR8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BS8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="BT8" s="6">
-        <v>45839</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
@@ -6702,217 +6611,217 @@
         <v>76</v>
       </c>
       <c r="B9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AU9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AV9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AW9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AY9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AZ9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BA9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BB9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BC9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BE9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BG9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BH9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BI9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BJ9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BK9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BL9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BM9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BN9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BO9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BP9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BQ9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BR9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BS9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BT9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
@@ -21628,7 +21537,7 @@
         <v>120.4</v>
       </c>
       <c r="AF83" s="8">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="AG83" s="8">
         <v>126.1</v>
@@ -21733,7 +21642,7 @@
         <v>5.5</v>
       </c>
       <c r="BO83" s="8">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BP83" s="8">
         <v>5.4</v>
@@ -24026,7 +23935,7 @@
         <v>123.6</v>
       </c>
       <c r="AF94" s="8">
-        <v>123.7</v>
+        <v>123.6</v>
       </c>
       <c r="AG94" s="8">
         <v>127.2</v>
@@ -24131,7 +24040,7 @@
         <v>3</v>
       </c>
       <c r="BO94" s="8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BP94" s="8">
         <v>3.4</v>
@@ -24349,7 +24258,7 @@
         <v>2.7</v>
       </c>
       <c r="BO95" s="8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BP95" s="8">
         <v>3.2</v>
@@ -26382,7 +26291,7 @@
         <v>142.80000000000001</v>
       </c>
       <c r="R105" s="8">
-        <v>118.8</v>
+        <v>119.3</v>
       </c>
       <c r="S105" s="8">
         <v>145.6</v>
@@ -26424,7 +26333,7 @@
         <v>127.6</v>
       </c>
       <c r="AF105" s="8">
-        <v>127.6</v>
+        <v>127.7</v>
       </c>
       <c r="AG105" s="8">
         <v>130.80000000000001</v>
@@ -26487,7 +26396,7 @@
         <v>0.4</v>
       </c>
       <c r="BA105" s="8">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="BB105" s="8">
         <v>4.7</v>
@@ -26529,7 +26438,7 @@
         <v>3.2</v>
       </c>
       <c r="BO105" s="8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="BP105" s="8">
         <v>2.7</v>
@@ -26545,6 +26454,224 @@
       </c>
       <c r="BT105" s="8">
         <v>3.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
+        <v>45870</v>
+      </c>
+      <c r="B106" s="8">
+        <v>127.6</v>
+      </c>
+      <c r="C106" s="8">
+        <v>134.6</v>
+      </c>
+      <c r="D106" s="8">
+        <v>136.6</v>
+      </c>
+      <c r="E106" s="8">
+        <v>131.6</v>
+      </c>
+      <c r="F106" s="8">
+        <v>138</v>
+      </c>
+      <c r="G106" s="8">
+        <v>144.9</v>
+      </c>
+      <c r="H106" s="8">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="I106" s="8">
+        <v>138.1</v>
+      </c>
+      <c r="J106" s="8">
+        <v>155</v>
+      </c>
+      <c r="K106" s="8">
+        <v>121.9</v>
+      </c>
+      <c r="L106" s="8">
+        <v>224.9</v>
+      </c>
+      <c r="M106" s="8">
+        <v>107.6</v>
+      </c>
+      <c r="N106" s="8">
+        <v>102.7</v>
+      </c>
+      <c r="O106" s="8">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="P106" s="8">
+        <v>122</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>143.4</v>
+      </c>
+      <c r="R106" s="8">
+        <v>111.8</v>
+      </c>
+      <c r="S106" s="8">
+        <v>145.9</v>
+      </c>
+      <c r="T106" s="8">
+        <v>118.9</v>
+      </c>
+      <c r="U106" s="8">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="V106" s="8">
+        <v>130.5</v>
+      </c>
+      <c r="W106" s="8">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="X106" s="8">
+        <v>92.2</v>
+      </c>
+      <c r="Y106" s="8">
+        <v>112.3</v>
+      </c>
+      <c r="Z106" s="8">
+        <v>116.7</v>
+      </c>
+      <c r="AA106" s="8">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="AB106" s="8">
+        <v>128.6</v>
+      </c>
+      <c r="AC106" s="8">
+        <v>126.7</v>
+      </c>
+      <c r="AD106" s="8">
+        <v>128</v>
+      </c>
+      <c r="AE106" s="8">
+        <v>127.8</v>
+      </c>
+      <c r="AF106" s="8">
+        <v>127.8</v>
+      </c>
+      <c r="AG106" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="AH106" s="8">
+        <v>123.6</v>
+      </c>
+      <c r="AI106" s="8">
+        <v>119.8</v>
+      </c>
+      <c r="AJ106" s="8">
+        <v>131.9</v>
+      </c>
+      <c r="AK106" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL106" s="8">
+        <v>3</v>
+      </c>
+      <c r="AM106" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AN106" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="AO106" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AP106" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ106" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AR106" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AS106" s="8">
+        <v>6</v>
+      </c>
+      <c r="AT106" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="AU106" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="AV106" s="8">
+        <v>3</v>
+      </c>
+      <c r="AW106" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AX106" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AY106" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="AZ106" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BA106" s="8">
+        <v>24.6</v>
+      </c>
+      <c r="BB106" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BC106" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BD106" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE106" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="BF106" s="8">
+        <v>-1.7</v>
+      </c>
+      <c r="BG106" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BH106" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="BI106" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BJ106" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="BK106" s="8">
+        <v>3</v>
+      </c>
+      <c r="BL106" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="BM106" s="8">
+        <v>3</v>
+      </c>
+      <c r="BN106" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="BO106" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="BP106" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="BQ106" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="BR106" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="BS106" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="BT106" s="8">
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/ABS/Full_Sheets/648401.xlsx
+++ b/User_Data/ABS/Full_Sheets/648401.xlsx
@@ -17,221 +17,221 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$106</definedName>
-    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$106</definedName>
-    <definedName name="A128473239F_Latest">Data1!$AC$106</definedName>
-    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$106</definedName>
-    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$106</definedName>
-    <definedName name="A128473240R_Latest">Data1!$BL$106</definedName>
-    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$106</definedName>
-    <definedName name="A128473315W_Data">Data1!$U$11:$U$106</definedName>
-    <definedName name="A128473315W_Latest">Data1!$U$106</definedName>
-    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$106</definedName>
-    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$106</definedName>
-    <definedName name="A128473316X_Latest">Data1!$BD$106</definedName>
-    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$106</definedName>
-    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$106</definedName>
-    <definedName name="A128473361K_Latest">Data1!$AA$106</definedName>
-    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$106</definedName>
-    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$106</definedName>
-    <definedName name="A128473362L_Latest">Data1!$BJ$106</definedName>
-    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$106</definedName>
-    <definedName name="A128473449C_Data">Data1!$P$11:$P$106</definedName>
-    <definedName name="A128473449C_Latest">Data1!$P$106</definedName>
-    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$106</definedName>
-    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$106</definedName>
-    <definedName name="A128473450L_Latest">Data1!$AY$106</definedName>
-    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$106</definedName>
-    <definedName name="A128473623X_Data">Data1!$I$11:$I$106</definedName>
-    <definedName name="A128473623X_Latest">Data1!$I$106</definedName>
-    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$106</definedName>
-    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$106</definedName>
-    <definedName name="A128473624A_Latest">Data1!$AR$106</definedName>
-    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$106</definedName>
-    <definedName name="A128474303F_Data">Data1!$R$11:$R$106</definedName>
-    <definedName name="A128474303F_Latest">Data1!$R$106</definedName>
-    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$106</definedName>
-    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$106</definedName>
-    <definedName name="A128474304J_Latest">Data1!$BA$106</definedName>
-    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$106</definedName>
-    <definedName name="A128475063X_Data">Data1!$X$11:$X$106</definedName>
-    <definedName name="A128475063X_Latest">Data1!$X$106</definedName>
-    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$106</definedName>
-    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$106</definedName>
-    <definedName name="A128475064A_Latest">Data1!$BG$106</definedName>
-    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$106</definedName>
-    <definedName name="A128475329W_Data">Data1!$H$11:$H$106</definedName>
-    <definedName name="A128475329W_Latest">Data1!$H$106</definedName>
-    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$106</definedName>
-    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$106</definedName>
-    <definedName name="A128475330F_Latest">Data1!$AQ$106</definedName>
-    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$106</definedName>
-    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$106</definedName>
-    <definedName name="A128475405L_Latest">Data1!$Q$106</definedName>
-    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$106</definedName>
-    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$106</definedName>
-    <definedName name="A128475406R_Latest">Data1!$AZ$106</definedName>
-    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$106</definedName>
-    <definedName name="A128475583C_Data">Data1!$M$11:$M$106</definedName>
-    <definedName name="A128475583C_Latest">Data1!$M$106</definedName>
-    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$106</definedName>
-    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$106</definedName>
-    <definedName name="A128475584F_Latest">Data1!$AV$106</definedName>
-    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$106</definedName>
-    <definedName name="A128475629X_Data">Data1!$D$11:$D$106</definedName>
-    <definedName name="A128475629X_Latest">Data1!$D$106</definedName>
-    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$106</definedName>
-    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$106</definedName>
-    <definedName name="A128475630J_Latest">Data1!$AM$106</definedName>
-    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$106</definedName>
-    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$106</definedName>
-    <definedName name="A128475797K_Latest">Data1!$Z$106</definedName>
-    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$106</definedName>
-    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$106</definedName>
-    <definedName name="A128475798L_Latest">Data1!$BI$106</definedName>
-    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$106</definedName>
-    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$106</definedName>
-    <definedName name="A128476505R_Latest">Data1!$AI$106</definedName>
-    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$106</definedName>
-    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$106</definedName>
-    <definedName name="A128476506T_Latest">Data1!$BS$106</definedName>
-    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$106</definedName>
-    <definedName name="A128476849V_Data">Data1!$S$11:$S$106</definedName>
-    <definedName name="A128476849V_Latest">Data1!$S$106</definedName>
-    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$106</definedName>
-    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$106</definedName>
-    <definedName name="A128476850C_Latest">Data1!$BB$106</definedName>
-    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$106</definedName>
-    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$106</definedName>
-    <definedName name="A128477043A_Latest">Data1!$AB$106</definedName>
-    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$106</definedName>
-    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$106</definedName>
-    <definedName name="A128477044C_Latest">Data1!$BK$106</definedName>
-    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$106</definedName>
-    <definedName name="A128477399R_Data">Data1!$J$11:$J$106</definedName>
-    <definedName name="A128477399R_Latest">Data1!$J$106</definedName>
-    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$106</definedName>
-    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$106</definedName>
-    <definedName name="A128477400L_Latest">Data1!$AS$106</definedName>
-    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$106</definedName>
-    <definedName name="A128477405X_Data">Data1!$F$11:$F$106</definedName>
-    <definedName name="A128477405X_Latest">Data1!$F$106</definedName>
-    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$106</definedName>
-    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$106</definedName>
-    <definedName name="A128477406A_Latest">Data1!$AO$106</definedName>
-    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$106</definedName>
-    <definedName name="A128478317T_Data">Data1!$B$11:$B$106</definedName>
-    <definedName name="A128478317T_Latest">Data1!$B$106</definedName>
-    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$106</definedName>
-    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$106</definedName>
-    <definedName name="A128478318V_Latest">Data1!$AK$106</definedName>
-    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$106</definedName>
-    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$106</definedName>
-    <definedName name="A128478473V_Latest">Data1!$Y$106</definedName>
-    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$106</definedName>
-    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$106</definedName>
-    <definedName name="A128478474W_Latest">Data1!$BH$106</definedName>
-    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$106</definedName>
-    <definedName name="A128478847A_Data">Data1!$N$11:$N$106</definedName>
-    <definedName name="A128478847A_Latest">Data1!$N$106</definedName>
-    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$106</definedName>
-    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$106</definedName>
-    <definedName name="A128478848C_Latest">Data1!$AW$106</definedName>
-    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$106</definedName>
-    <definedName name="A128479215W_Data">Data1!$E$11:$E$106</definedName>
-    <definedName name="A128479215W_Latest">Data1!$E$106</definedName>
-    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$106</definedName>
-    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$106</definedName>
-    <definedName name="A128479216X_Latest">Data1!$AN$106</definedName>
-    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$106</definedName>
-    <definedName name="A128479281V_Data">Data1!$K$11:$K$106</definedName>
-    <definedName name="A128479281V_Latest">Data1!$K$106</definedName>
-    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$106</definedName>
-    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$106</definedName>
-    <definedName name="A128479282W_Latest">Data1!$AT$106</definedName>
-    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$106</definedName>
-    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$106</definedName>
-    <definedName name="A128480133R_Latest">Data1!$AJ$106</definedName>
-    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$106</definedName>
-    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$106</definedName>
-    <definedName name="A128480134T_Latest">Data1!$BT$106</definedName>
-    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$106</definedName>
-    <definedName name="A128480215V_Data">Data1!$G$11:$G$106</definedName>
-    <definedName name="A128480215V_Latest">Data1!$G$106</definedName>
-    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$106</definedName>
-    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$106</definedName>
-    <definedName name="A128480216W_Latest">Data1!$AP$106</definedName>
-    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$106</definedName>
-    <definedName name="A128480733V_Data">Data1!$C$11:$C$106</definedName>
-    <definedName name="A128480733V_Latest">Data1!$C$106</definedName>
-    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$106</definedName>
-    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$106</definedName>
-    <definedName name="A128480734W_Latest">Data1!$AL$106</definedName>
-    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$106</definedName>
-    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$106</definedName>
-    <definedName name="A128481587A_Latest">Data1!$AD$106</definedName>
-    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$106</definedName>
-    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$106</definedName>
-    <definedName name="A128481588C_Latest">Data1!$BM$106</definedName>
-    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$106</definedName>
-    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$106</definedName>
-    <definedName name="A128481639T_Latest">Data1!$AH$106</definedName>
-    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$106</definedName>
-    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$106</definedName>
-    <definedName name="A128481640A_Latest">Data1!$BR$106</definedName>
-    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$106</definedName>
-    <definedName name="A128482435J_Data">Data1!$V$11:$V$106</definedName>
-    <definedName name="A128482435J_Latest">Data1!$V$106</definedName>
-    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$106</definedName>
-    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$106</definedName>
-    <definedName name="A128482436K_Latest">Data1!$BE$106</definedName>
-    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$106</definedName>
-    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$106</definedName>
-    <definedName name="A128483461F_Latest">Data1!$AG$106</definedName>
-    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$106</definedName>
-    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$106</definedName>
-    <definedName name="A128483462J_Latest">Data1!$BQ$106</definedName>
-    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$106</definedName>
-    <definedName name="A128484257R_Data">Data1!$L$11:$L$106</definedName>
-    <definedName name="A128484257R_Latest">Data1!$L$106</definedName>
-    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$106</definedName>
-    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$106</definedName>
-    <definedName name="A128484258T_Latest">Data1!$AU$106</definedName>
-    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$106</definedName>
-    <definedName name="A128484685K_Data">Data1!$W$11:$W$106</definedName>
-    <definedName name="A128484685K_Latest">Data1!$W$106</definedName>
-    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$106</definedName>
-    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$106</definedName>
-    <definedName name="A128484686L_Latest">Data1!$BF$106</definedName>
-    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$106</definedName>
-    <definedName name="A128485865L_Data">Data1!$O$11:$O$106</definedName>
-    <definedName name="A128485865L_Latest">Data1!$O$106</definedName>
-    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$106</definedName>
-    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$106</definedName>
-    <definedName name="A128485866R_Latest">Data1!$AX$106</definedName>
-    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$106</definedName>
-    <definedName name="A128485881L_Data">Data1!$T$11:$T$106</definedName>
-    <definedName name="A128485881L_Latest">Data1!$T$106</definedName>
-    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$106</definedName>
-    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$106</definedName>
-    <definedName name="A128485882R_Latest">Data1!$BC$106</definedName>
-    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$106</definedName>
-    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$106</definedName>
-    <definedName name="A130184496J_Latest">Data1!$BN$106</definedName>
-    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$106</definedName>
-    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$106</definedName>
-    <definedName name="A130184497K_Latest">Data1!$BP$106</definedName>
-    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$106</definedName>
-    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$106</definedName>
-    <definedName name="A130184498L_Latest">Data1!$BO$106</definedName>
-    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$106</definedName>
-    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$106</definedName>
-    <definedName name="A130184499R_Latest">Data1!$AE$106</definedName>
-    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$106</definedName>
-    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$106</definedName>
-    <definedName name="A130184501R_Latest">Data1!$AF$106</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$106</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$106</definedName>
+    <definedName name="A128473239F">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$107</definedName>
+    <definedName name="A128473239F_Data">Data1!$AC$11:$AC$107</definedName>
+    <definedName name="A128473239F_Latest">Data1!$AC$107</definedName>
+    <definedName name="A128473240R">Data1!$BL$1:$BL$10,Data1!$BL$23:$BL$107</definedName>
+    <definedName name="A128473240R_Data">Data1!$BL$23:$BL$107</definedName>
+    <definedName name="A128473240R_Latest">Data1!$BL$107</definedName>
+    <definedName name="A128473315W">Data1!$U$1:$U$10,Data1!$U$11:$U$107</definedName>
+    <definedName name="A128473315W_Data">Data1!$U$11:$U$107</definedName>
+    <definedName name="A128473315W_Latest">Data1!$U$107</definedName>
+    <definedName name="A128473316X">Data1!$BD$1:$BD$10,Data1!$BD$23:$BD$107</definedName>
+    <definedName name="A128473316X_Data">Data1!$BD$23:$BD$107</definedName>
+    <definedName name="A128473316X_Latest">Data1!$BD$107</definedName>
+    <definedName name="A128473361K">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$107</definedName>
+    <definedName name="A128473361K_Data">Data1!$AA$11:$AA$107</definedName>
+    <definedName name="A128473361K_Latest">Data1!$AA$107</definedName>
+    <definedName name="A128473362L">Data1!$BJ$1:$BJ$10,Data1!$BJ$23:$BJ$107</definedName>
+    <definedName name="A128473362L_Data">Data1!$BJ$23:$BJ$107</definedName>
+    <definedName name="A128473362L_Latest">Data1!$BJ$107</definedName>
+    <definedName name="A128473449C">Data1!$P$1:$P$10,Data1!$P$11:$P$107</definedName>
+    <definedName name="A128473449C_Data">Data1!$P$11:$P$107</definedName>
+    <definedName name="A128473449C_Latest">Data1!$P$107</definedName>
+    <definedName name="A128473450L">Data1!$AY$1:$AY$10,Data1!$AY$23:$AY$107</definedName>
+    <definedName name="A128473450L_Data">Data1!$AY$23:$AY$107</definedName>
+    <definedName name="A128473450L_Latest">Data1!$AY$107</definedName>
+    <definedName name="A128473623X">Data1!$I$1:$I$10,Data1!$I$11:$I$107</definedName>
+    <definedName name="A128473623X_Data">Data1!$I$11:$I$107</definedName>
+    <definedName name="A128473623X_Latest">Data1!$I$107</definedName>
+    <definedName name="A128473624A">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$107</definedName>
+    <definedName name="A128473624A_Data">Data1!$AR$23:$AR$107</definedName>
+    <definedName name="A128473624A_Latest">Data1!$AR$107</definedName>
+    <definedName name="A128474303F">Data1!$R$1:$R$10,Data1!$R$11:$R$107</definedName>
+    <definedName name="A128474303F_Data">Data1!$R$11:$R$107</definedName>
+    <definedName name="A128474303F_Latest">Data1!$R$107</definedName>
+    <definedName name="A128474304J">Data1!$BA$1:$BA$10,Data1!$BA$23:$BA$107</definedName>
+    <definedName name="A128474304J_Data">Data1!$BA$23:$BA$107</definedName>
+    <definedName name="A128474304J_Latest">Data1!$BA$107</definedName>
+    <definedName name="A128475063X">Data1!$X$1:$X$10,Data1!$X$11:$X$107</definedName>
+    <definedName name="A128475063X_Data">Data1!$X$11:$X$107</definedName>
+    <definedName name="A128475063X_Latest">Data1!$X$107</definedName>
+    <definedName name="A128475064A">Data1!$BG$1:$BG$10,Data1!$BG$23:$BG$107</definedName>
+    <definedName name="A128475064A_Data">Data1!$BG$23:$BG$107</definedName>
+    <definedName name="A128475064A_Latest">Data1!$BG$107</definedName>
+    <definedName name="A128475329W">Data1!$H$1:$H$10,Data1!$H$11:$H$107</definedName>
+    <definedName name="A128475329W_Data">Data1!$H$11:$H$107</definedName>
+    <definedName name="A128475329W_Latest">Data1!$H$107</definedName>
+    <definedName name="A128475330F">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$107</definedName>
+    <definedName name="A128475330F_Data">Data1!$AQ$23:$AQ$107</definedName>
+    <definedName name="A128475330F_Latest">Data1!$AQ$107</definedName>
+    <definedName name="A128475405L">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$107</definedName>
+    <definedName name="A128475405L_Data">Data1!$Q$11:$Q$107</definedName>
+    <definedName name="A128475405L_Latest">Data1!$Q$107</definedName>
+    <definedName name="A128475406R">Data1!$AZ$1:$AZ$10,Data1!$AZ$23:$AZ$107</definedName>
+    <definedName name="A128475406R_Data">Data1!$AZ$23:$AZ$107</definedName>
+    <definedName name="A128475406R_Latest">Data1!$AZ$107</definedName>
+    <definedName name="A128475583C">Data1!$M$1:$M$10,Data1!$M$11:$M$107</definedName>
+    <definedName name="A128475583C_Data">Data1!$M$11:$M$107</definedName>
+    <definedName name="A128475583C_Latest">Data1!$M$107</definedName>
+    <definedName name="A128475584F">Data1!$AV$1:$AV$10,Data1!$AV$23:$AV$107</definedName>
+    <definedName name="A128475584F_Data">Data1!$AV$23:$AV$107</definedName>
+    <definedName name="A128475584F_Latest">Data1!$AV$107</definedName>
+    <definedName name="A128475629X">Data1!$D$1:$D$10,Data1!$D$11:$D$107</definedName>
+    <definedName name="A128475629X_Data">Data1!$D$11:$D$107</definedName>
+    <definedName name="A128475629X_Latest">Data1!$D$107</definedName>
+    <definedName name="A128475630J">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$107</definedName>
+    <definedName name="A128475630J_Data">Data1!$AM$23:$AM$107</definedName>
+    <definedName name="A128475630J_Latest">Data1!$AM$107</definedName>
+    <definedName name="A128475797K">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$107</definedName>
+    <definedName name="A128475797K_Data">Data1!$Z$11:$Z$107</definedName>
+    <definedName name="A128475797K_Latest">Data1!$Z$107</definedName>
+    <definedName name="A128475798L">Data1!$BI$1:$BI$10,Data1!$BI$23:$BI$107</definedName>
+    <definedName name="A128475798L_Data">Data1!$BI$23:$BI$107</definedName>
+    <definedName name="A128475798L_Latest">Data1!$BI$107</definedName>
+    <definedName name="A128476505R">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$107</definedName>
+    <definedName name="A128476505R_Data">Data1!$AI$11:$AI$107</definedName>
+    <definedName name="A128476505R_Latest">Data1!$AI$107</definedName>
+    <definedName name="A128476506T">Data1!$BS$1:$BS$10,Data1!$BS$23:$BS$107</definedName>
+    <definedName name="A128476506T_Data">Data1!$BS$23:$BS$107</definedName>
+    <definedName name="A128476506T_Latest">Data1!$BS$107</definedName>
+    <definedName name="A128476849V">Data1!$S$1:$S$10,Data1!$S$11:$S$107</definedName>
+    <definedName name="A128476849V_Data">Data1!$S$11:$S$107</definedName>
+    <definedName name="A128476849V_Latest">Data1!$S$107</definedName>
+    <definedName name="A128476850C">Data1!$BB$1:$BB$10,Data1!$BB$23:$BB$107</definedName>
+    <definedName name="A128476850C_Data">Data1!$BB$23:$BB$107</definedName>
+    <definedName name="A128476850C_Latest">Data1!$BB$107</definedName>
+    <definedName name="A128477043A">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$107</definedName>
+    <definedName name="A128477043A_Data">Data1!$AB$11:$AB$107</definedName>
+    <definedName name="A128477043A_Latest">Data1!$AB$107</definedName>
+    <definedName name="A128477044C">Data1!$BK$1:$BK$10,Data1!$BK$23:$BK$107</definedName>
+    <definedName name="A128477044C_Data">Data1!$BK$23:$BK$107</definedName>
+    <definedName name="A128477044C_Latest">Data1!$BK$107</definedName>
+    <definedName name="A128477399R">Data1!$J$1:$J$10,Data1!$J$11:$J$107</definedName>
+    <definedName name="A128477399R_Data">Data1!$J$11:$J$107</definedName>
+    <definedName name="A128477399R_Latest">Data1!$J$107</definedName>
+    <definedName name="A128477400L">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$107</definedName>
+    <definedName name="A128477400L_Data">Data1!$AS$23:$AS$107</definedName>
+    <definedName name="A128477400L_Latest">Data1!$AS$107</definedName>
+    <definedName name="A128477405X">Data1!$F$1:$F$10,Data1!$F$11:$F$107</definedName>
+    <definedName name="A128477405X_Data">Data1!$F$11:$F$107</definedName>
+    <definedName name="A128477405X_Latest">Data1!$F$107</definedName>
+    <definedName name="A128477406A">Data1!$AO$1:$AO$10,Data1!$AO$23:$AO$107</definedName>
+    <definedName name="A128477406A_Data">Data1!$AO$23:$AO$107</definedName>
+    <definedName name="A128477406A_Latest">Data1!$AO$107</definedName>
+    <definedName name="A128478317T">Data1!$B$1:$B$10,Data1!$B$11:$B$107</definedName>
+    <definedName name="A128478317T_Data">Data1!$B$11:$B$107</definedName>
+    <definedName name="A128478317T_Latest">Data1!$B$107</definedName>
+    <definedName name="A128478318V">Data1!$AK$1:$AK$10,Data1!$AK$23:$AK$107</definedName>
+    <definedName name="A128478318V_Data">Data1!$AK$23:$AK$107</definedName>
+    <definedName name="A128478318V_Latest">Data1!$AK$107</definedName>
+    <definedName name="A128478473V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$107</definedName>
+    <definedName name="A128478473V_Data">Data1!$Y$11:$Y$107</definedName>
+    <definedName name="A128478473V_Latest">Data1!$Y$107</definedName>
+    <definedName name="A128478474W">Data1!$BH$1:$BH$10,Data1!$BH$23:$BH$107</definedName>
+    <definedName name="A128478474W_Data">Data1!$BH$23:$BH$107</definedName>
+    <definedName name="A128478474W_Latest">Data1!$BH$107</definedName>
+    <definedName name="A128478847A">Data1!$N$1:$N$10,Data1!$N$11:$N$107</definedName>
+    <definedName name="A128478847A_Data">Data1!$N$11:$N$107</definedName>
+    <definedName name="A128478847A_Latest">Data1!$N$107</definedName>
+    <definedName name="A128478848C">Data1!$AW$1:$AW$10,Data1!$AW$23:$AW$107</definedName>
+    <definedName name="A128478848C_Data">Data1!$AW$23:$AW$107</definedName>
+    <definedName name="A128478848C_Latest">Data1!$AW$107</definedName>
+    <definedName name="A128479215W">Data1!$E$1:$E$10,Data1!$E$11:$E$107</definedName>
+    <definedName name="A128479215W_Data">Data1!$E$11:$E$107</definedName>
+    <definedName name="A128479215W_Latest">Data1!$E$107</definedName>
+    <definedName name="A128479216X">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$107</definedName>
+    <definedName name="A128479216X_Data">Data1!$AN$23:$AN$107</definedName>
+    <definedName name="A128479216X_Latest">Data1!$AN$107</definedName>
+    <definedName name="A128479281V">Data1!$K$1:$K$10,Data1!$K$11:$K$107</definedName>
+    <definedName name="A128479281V_Data">Data1!$K$11:$K$107</definedName>
+    <definedName name="A128479281V_Latest">Data1!$K$107</definedName>
+    <definedName name="A128479282W">Data1!$AT$1:$AT$10,Data1!$AT$23:$AT$107</definedName>
+    <definedName name="A128479282W_Data">Data1!$AT$23:$AT$107</definedName>
+    <definedName name="A128479282W_Latest">Data1!$AT$107</definedName>
+    <definedName name="A128480133R">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$107</definedName>
+    <definedName name="A128480133R_Data">Data1!$AJ$11:$AJ$107</definedName>
+    <definedName name="A128480133R_Latest">Data1!$AJ$107</definedName>
+    <definedName name="A128480134T">Data1!$BT$1:$BT$10,Data1!$BT$23:$BT$107</definedName>
+    <definedName name="A128480134T_Data">Data1!$BT$23:$BT$107</definedName>
+    <definedName name="A128480134T_Latest">Data1!$BT$107</definedName>
+    <definedName name="A128480215V">Data1!$G$1:$G$10,Data1!$G$11:$G$107</definedName>
+    <definedName name="A128480215V_Data">Data1!$G$11:$G$107</definedName>
+    <definedName name="A128480215V_Latest">Data1!$G$107</definedName>
+    <definedName name="A128480216W">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$107</definedName>
+    <definedName name="A128480216W_Data">Data1!$AP$23:$AP$107</definedName>
+    <definedName name="A128480216W_Latest">Data1!$AP$107</definedName>
+    <definedName name="A128480733V">Data1!$C$1:$C$10,Data1!$C$11:$C$107</definedName>
+    <definedName name="A128480733V_Data">Data1!$C$11:$C$107</definedName>
+    <definedName name="A128480733V_Latest">Data1!$C$107</definedName>
+    <definedName name="A128480734W">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$107</definedName>
+    <definedName name="A128480734W_Data">Data1!$AL$23:$AL$107</definedName>
+    <definedName name="A128480734W_Latest">Data1!$AL$107</definedName>
+    <definedName name="A128481587A">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$107</definedName>
+    <definedName name="A128481587A_Data">Data1!$AD$11:$AD$107</definedName>
+    <definedName name="A128481587A_Latest">Data1!$AD$107</definedName>
+    <definedName name="A128481588C">Data1!$BM$1:$BM$10,Data1!$BM$23:$BM$107</definedName>
+    <definedName name="A128481588C_Data">Data1!$BM$23:$BM$107</definedName>
+    <definedName name="A128481588C_Latest">Data1!$BM$107</definedName>
+    <definedName name="A128481639T">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$107</definedName>
+    <definedName name="A128481639T_Data">Data1!$AH$11:$AH$107</definedName>
+    <definedName name="A128481639T_Latest">Data1!$AH$107</definedName>
+    <definedName name="A128481640A">Data1!$BR$1:$BR$10,Data1!$BR$23:$BR$107</definedName>
+    <definedName name="A128481640A_Data">Data1!$BR$23:$BR$107</definedName>
+    <definedName name="A128481640A_Latest">Data1!$BR$107</definedName>
+    <definedName name="A128482435J">Data1!$V$1:$V$10,Data1!$V$11:$V$107</definedName>
+    <definedName name="A128482435J_Data">Data1!$V$11:$V$107</definedName>
+    <definedName name="A128482435J_Latest">Data1!$V$107</definedName>
+    <definedName name="A128482436K">Data1!$BE$1:$BE$10,Data1!$BE$23:$BE$107</definedName>
+    <definedName name="A128482436K_Data">Data1!$BE$23:$BE$107</definedName>
+    <definedName name="A128482436K_Latest">Data1!$BE$107</definedName>
+    <definedName name="A128483461F">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$107</definedName>
+    <definedName name="A128483461F_Data">Data1!$AG$11:$AG$107</definedName>
+    <definedName name="A128483461F_Latest">Data1!$AG$107</definedName>
+    <definedName name="A128483462J">Data1!$BQ$1:$BQ$10,Data1!$BQ$23:$BQ$107</definedName>
+    <definedName name="A128483462J_Data">Data1!$BQ$23:$BQ$107</definedName>
+    <definedName name="A128483462J_Latest">Data1!$BQ$107</definedName>
+    <definedName name="A128484257R">Data1!$L$1:$L$10,Data1!$L$11:$L$107</definedName>
+    <definedName name="A128484257R_Data">Data1!$L$11:$L$107</definedName>
+    <definedName name="A128484257R_Latest">Data1!$L$107</definedName>
+    <definedName name="A128484258T">Data1!$AU$1:$AU$10,Data1!$AU$23:$AU$107</definedName>
+    <definedName name="A128484258T_Data">Data1!$AU$23:$AU$107</definedName>
+    <definedName name="A128484258T_Latest">Data1!$AU$107</definedName>
+    <definedName name="A128484685K">Data1!$W$1:$W$10,Data1!$W$11:$W$107</definedName>
+    <definedName name="A128484685K_Data">Data1!$W$11:$W$107</definedName>
+    <definedName name="A128484685K_Latest">Data1!$W$107</definedName>
+    <definedName name="A128484686L">Data1!$BF$1:$BF$10,Data1!$BF$23:$BF$107</definedName>
+    <definedName name="A128484686L_Data">Data1!$BF$23:$BF$107</definedName>
+    <definedName name="A128484686L_Latest">Data1!$BF$107</definedName>
+    <definedName name="A128485865L">Data1!$O$1:$O$10,Data1!$O$11:$O$107</definedName>
+    <definedName name="A128485865L_Data">Data1!$O$11:$O$107</definedName>
+    <definedName name="A128485865L_Latest">Data1!$O$107</definedName>
+    <definedName name="A128485866R">Data1!$AX$1:$AX$10,Data1!$AX$23:$AX$107</definedName>
+    <definedName name="A128485866R_Data">Data1!$AX$23:$AX$107</definedName>
+    <definedName name="A128485866R_Latest">Data1!$AX$107</definedName>
+    <definedName name="A128485881L">Data1!$T$1:$T$10,Data1!$T$11:$T$107</definedName>
+    <definedName name="A128485881L_Data">Data1!$T$11:$T$107</definedName>
+    <definedName name="A128485881L_Latest">Data1!$T$107</definedName>
+    <definedName name="A128485882R">Data1!$BC$1:$BC$10,Data1!$BC$23:$BC$107</definedName>
+    <definedName name="A128485882R_Data">Data1!$BC$23:$BC$107</definedName>
+    <definedName name="A128485882R_Latest">Data1!$BC$107</definedName>
+    <definedName name="A130184496J">Data1!$BN$1:$BN$10,Data1!$BN$23:$BN$107</definedName>
+    <definedName name="A130184496J_Data">Data1!$BN$23:$BN$107</definedName>
+    <definedName name="A130184496J_Latest">Data1!$BN$107</definedName>
+    <definedName name="A130184497K">Data1!$BP$1:$BP$10,Data1!$BP$23:$BP$107</definedName>
+    <definedName name="A130184497K_Data">Data1!$BP$23:$BP$107</definedName>
+    <definedName name="A130184497K_Latest">Data1!$BP$107</definedName>
+    <definedName name="A130184498L">Data1!$BO$1:$BO$10,Data1!$BO$23:$BO$107</definedName>
+    <definedName name="A130184498L_Data">Data1!$BO$23:$BO$107</definedName>
+    <definedName name="A130184498L_Latest">Data1!$BO$107</definedName>
+    <definedName name="A130184499R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$107</definedName>
+    <definedName name="A130184499R_Data">Data1!$AE$11:$AE$107</definedName>
+    <definedName name="A130184499R_Latest">Data1!$AE$107</definedName>
+    <definedName name="A130184501R">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$107</definedName>
+    <definedName name="A130184501R_Data">Data1!$AF$11:$AF$107</definedName>
+    <definedName name="A130184501R_Latest">Data1!$AF$107</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$107</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$107</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1196,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF83" authorId="0" shapeId="0">
+    <comment ref="AF18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,72 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO83" authorId="0" shapeId="0">
+    <comment ref="BO30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF86" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO95" authorId="0" shapeId="0">
+    <comment ref="AD97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R105" authorId="0" shapeId="0">
+    <comment ref="BM97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF105" authorId="0" shapeId="0">
+    <comment ref="BO98" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA105" authorId="0" shapeId="0">
+    <comment ref="AD99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1365,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO105" authorId="0" shapeId="0">
+    <comment ref="BM99" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>revised</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2502,10 +2580,10 @@
         <v>42979</v>
       </c>
       <c r="G12" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H12" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>78</v>
@@ -2534,10 +2612,10 @@
         <v>42979</v>
       </c>
       <c r="G13" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H13" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>78</v>
@@ -2566,10 +2644,10 @@
         <v>42979</v>
       </c>
       <c r="G14" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H14" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>78</v>
@@ -2598,10 +2676,10 @@
         <v>42979</v>
       </c>
       <c r="G15" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H15" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>78</v>
@@ -2630,10 +2708,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H16" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>78</v>
@@ -2662,10 +2740,10 @@
         <v>42979</v>
       </c>
       <c r="G17" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H17" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>78</v>
@@ -2694,10 +2772,10 @@
         <v>42979</v>
       </c>
       <c r="G18" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H18" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>78</v>
@@ -2726,10 +2804,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H19" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>78</v>
@@ -2758,10 +2836,10 @@
         <v>42979</v>
       </c>
       <c r="G20" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H20" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>78</v>
@@ -2790,10 +2868,10 @@
         <v>42979</v>
       </c>
       <c r="G21" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H21" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>78</v>
@@ -2822,10 +2900,10 @@
         <v>42979</v>
       </c>
       <c r="G22" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H22" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>78</v>
@@ -2854,10 +2932,10 @@
         <v>42979</v>
       </c>
       <c r="G23" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H23" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>78</v>
@@ -2886,10 +2964,10 @@
         <v>42979</v>
       </c>
       <c r="G24" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H24" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>78</v>
@@ -2918,10 +2996,10 @@
         <v>42979</v>
       </c>
       <c r="G25" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H25" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>78</v>
@@ -2950,10 +3028,10 @@
         <v>42979</v>
       </c>
       <c r="G26" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H26" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>78</v>
@@ -2982,10 +3060,10 @@
         <v>42979</v>
       </c>
       <c r="G27" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H27" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>78</v>
@@ -3014,10 +3092,10 @@
         <v>42979</v>
       </c>
       <c r="G28" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H28" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>78</v>
@@ -3046,10 +3124,10 @@
         <v>42979</v>
       </c>
       <c r="G29" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H29" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>78</v>
@@ -3078,10 +3156,10 @@
         <v>42979</v>
       </c>
       <c r="G30" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H30" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>78</v>
@@ -3110,10 +3188,10 @@
         <v>42979</v>
       </c>
       <c r="G31" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H31" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>78</v>
@@ -3142,10 +3220,10 @@
         <v>42979</v>
       </c>
       <c r="G32" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H32" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>78</v>
@@ -3174,10 +3252,10 @@
         <v>42979</v>
       </c>
       <c r="G33" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H33" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>78</v>
@@ -3206,10 +3284,10 @@
         <v>42979</v>
       </c>
       <c r="G34" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H34" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>78</v>
@@ -3238,10 +3316,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H35" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>78</v>
@@ -3270,10 +3348,10 @@
         <v>42979</v>
       </c>
       <c r="G36" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H36" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>78</v>
@@ -3302,10 +3380,10 @@
         <v>42979</v>
       </c>
       <c r="G37" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H37" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>78</v>
@@ -3334,10 +3412,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H38" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>78</v>
@@ -3366,10 +3444,10 @@
         <v>42979</v>
       </c>
       <c r="G39" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H39" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>78</v>
@@ -3398,10 +3476,10 @@
         <v>42979</v>
       </c>
       <c r="G40" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H40" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>78</v>
@@ -3430,10 +3508,10 @@
         <v>42979</v>
       </c>
       <c r="G41" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H41" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>78</v>
@@ -3462,10 +3540,10 @@
         <v>42979</v>
       </c>
       <c r="G42" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H42" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>78</v>
@@ -3494,10 +3572,10 @@
         <v>42979</v>
       </c>
       <c r="G43" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H43" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>78</v>
@@ -3526,10 +3604,10 @@
         <v>42979</v>
       </c>
       <c r="G44" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H44" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>78</v>
@@ -3558,10 +3636,10 @@
         <v>42979</v>
       </c>
       <c r="G45" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H45" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>78</v>
@@ -3590,10 +3668,10 @@
         <v>42979</v>
       </c>
       <c r="G46" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H46" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>78</v>
@@ -3622,10 +3700,10 @@
         <v>43344</v>
       </c>
       <c r="G47" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H47" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>118</v>
@@ -3654,10 +3732,10 @@
         <v>43344</v>
       </c>
       <c r="G48" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H48" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>118</v>
@@ -3686,10 +3764,10 @@
         <v>43344</v>
       </c>
       <c r="G49" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H49" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>118</v>
@@ -3718,10 +3796,10 @@
         <v>43344</v>
       </c>
       <c r="G50" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H50" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>118</v>
@@ -3750,10 +3828,10 @@
         <v>43344</v>
       </c>
       <c r="G51" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H51" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>118</v>
@@ -3782,10 +3860,10 @@
         <v>43344</v>
       </c>
       <c r="G52" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H52" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>118</v>
@@ -3814,10 +3892,10 @@
         <v>43344</v>
       </c>
       <c r="G53" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H53" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>118</v>
@@ -3846,10 +3924,10 @@
         <v>43344</v>
       </c>
       <c r="G54" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H54" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>118</v>
@@ -3878,10 +3956,10 @@
         <v>43344</v>
       </c>
       <c r="G55" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H55" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>118</v>
@@ -3910,10 +3988,10 @@
         <v>43344</v>
       </c>
       <c r="G56" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H56" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>118</v>
@@ -3942,10 +4020,10 @@
         <v>43344</v>
       </c>
       <c r="G57" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H57" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>118</v>
@@ -3974,10 +4052,10 @@
         <v>43344</v>
       </c>
       <c r="G58" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H58" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>118</v>
@@ -4006,10 +4084,10 @@
         <v>43344</v>
       </c>
       <c r="G59" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H59" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>118</v>
@@ -4038,10 +4116,10 @@
         <v>43344</v>
       </c>
       <c r="G60" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H60" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>118</v>
@@ -4070,10 +4148,10 @@
         <v>43344</v>
       </c>
       <c r="G61" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H61" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>118</v>
@@ -4102,10 +4180,10 @@
         <v>43344</v>
       </c>
       <c r="G62" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H62" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>118</v>
@@ -4134,10 +4212,10 @@
         <v>43344</v>
       </c>
       <c r="G63" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H63" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>118</v>
@@ -4166,10 +4244,10 @@
         <v>43344</v>
       </c>
       <c r="G64" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H64" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>118</v>
@@ -4198,10 +4276,10 @@
         <v>43344</v>
       </c>
       <c r="G65" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H65" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>118</v>
@@ -4230,10 +4308,10 @@
         <v>43344</v>
       </c>
       <c r="G66" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H66" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>118</v>
@@ -4262,10 +4340,10 @@
         <v>43344</v>
       </c>
       <c r="G67" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H67" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>118</v>
@@ -4294,10 +4372,10 @@
         <v>43344</v>
       </c>
       <c r="G68" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H68" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>118</v>
@@ -4326,10 +4404,10 @@
         <v>43344</v>
       </c>
       <c r="G69" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H69" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>118</v>
@@ -4358,10 +4436,10 @@
         <v>43344</v>
       </c>
       <c r="G70" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H70" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>118</v>
@@ -4390,10 +4468,10 @@
         <v>43344</v>
       </c>
       <c r="G71" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H71" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>118</v>
@@ -4422,10 +4500,10 @@
         <v>43344</v>
       </c>
       <c r="G72" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H72" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>118</v>
@@ -4454,10 +4532,10 @@
         <v>43344</v>
       </c>
       <c r="G73" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H73" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>118</v>
@@ -4486,10 +4564,10 @@
         <v>43344</v>
       </c>
       <c r="G74" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H74" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>118</v>
@@ -4518,10 +4596,10 @@
         <v>43344</v>
       </c>
       <c r="G75" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H75" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>118</v>
@@ -4550,10 +4628,10 @@
         <v>43344</v>
       </c>
       <c r="G76" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H76" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>118</v>
@@ -4582,10 +4660,10 @@
         <v>43344</v>
       </c>
       <c r="G77" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H77" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>118</v>
@@ -4614,10 +4692,10 @@
         <v>43344</v>
       </c>
       <c r="G78" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H78" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>118</v>
@@ -4646,10 +4724,10 @@
         <v>43344</v>
       </c>
       <c r="G79" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H79" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>118</v>
@@ -4678,10 +4756,10 @@
         <v>43344</v>
       </c>
       <c r="G80" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H80" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>118</v>
@@ -4710,10 +4788,10 @@
         <v>43344</v>
       </c>
       <c r="G81" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H81" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>118</v>
@@ -4742,10 +4820,10 @@
         <v>43344</v>
       </c>
       <c r="G82" s="9">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H82" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>118</v>
@@ -4851,7 +4929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT106"/>
+  <dimension ref="A1:BT107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6393,217 +6471,217 @@
         <v>75</v>
       </c>
       <c r="B8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="C8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="D8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="E8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="F8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="H8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="I8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="J8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="K8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="L8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="M8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="N8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="O8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="P8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="Q8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="R8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="S8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="T8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="U8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="V8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="W8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="X8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="Y8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="Z8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AA8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AB8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AC8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AD8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AE8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AF8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AG8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AH8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AI8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AJ8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AK8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AL8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AM8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AN8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AO8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AP8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AQ8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AR8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AS8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AT8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AU8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AV8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AW8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AX8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AY8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="AZ8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BA8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BB8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BC8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BD8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BE8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BF8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BG8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BH8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BI8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BJ8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BK8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BL8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BM8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BN8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BO8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BP8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BQ8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BR8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BS8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="BT8" s="6">
-        <v>45870</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
@@ -6611,217 +6689,217 @@
         <v>76</v>
       </c>
       <c r="B9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ9" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AR9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AX9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BA9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BB9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BC9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BD9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BE9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BF9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BG9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BH9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BI9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BK9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BL9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BN9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BO9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BP9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BQ9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BR9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BS9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BT9" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
@@ -7907,7 +7985,7 @@
         <v>101</v>
       </c>
       <c r="AF18" s="8">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AG18" s="8">
         <v>101.7</v>
@@ -10088,7 +10166,7 @@
         <v>1.4</v>
       </c>
       <c r="BO30" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BP30" s="8">
         <v>1.6</v>
@@ -18703,7 +18781,7 @@
         <v>113.7</v>
       </c>
       <c r="AF70" s="8">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="AG70" s="8">
         <v>119.4</v>
@@ -18808,7 +18886,7 @@
         <v>6.6</v>
       </c>
       <c r="BO70" s="8">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="BP70" s="8">
         <v>5.9</v>
@@ -21424,7 +21502,7 @@
         <v>5.5</v>
       </c>
       <c r="BO82" s="8">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BP82" s="8">
         <v>5.6</v>
@@ -22191,7 +22269,7 @@
         <v>121</v>
       </c>
       <c r="AF86" s="8">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="AG86" s="8">
         <v>125.7</v>
@@ -22296,7 +22374,7 @@
         <v>4.2</v>
       </c>
       <c r="BO86" s="8">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BP86" s="8">
         <v>4</v>
@@ -23935,7 +24013,7 @@
         <v>123.6</v>
       </c>
       <c r="AF94" s="8">
-        <v>123.6</v>
+        <v>123.7</v>
       </c>
       <c r="AG94" s="8">
         <v>127.2</v>
@@ -24040,7 +24118,7 @@
         <v>3</v>
       </c>
       <c r="BO94" s="8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BP94" s="8">
         <v>3.4</v>
@@ -24583,7 +24661,7 @@
         <v>123.3</v>
       </c>
       <c r="AD97" s="8">
-        <v>124.8</v>
+        <v>124.7</v>
       </c>
       <c r="AE97" s="8">
         <v>124.3</v>
@@ -24688,7 +24766,7 @@
         <v>2.7</v>
       </c>
       <c r="BM97" s="8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BN97" s="8">
         <v>2.8</v>
@@ -24912,7 +24990,7 @@
         <v>2.7</v>
       </c>
       <c r="BO98" s="8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BP98" s="8">
         <v>2.7</v>
@@ -25019,7 +25097,7 @@
         <v>123.9</v>
       </c>
       <c r="AD99" s="8">
-        <v>125.6</v>
+        <v>125.5</v>
       </c>
       <c r="AE99" s="8">
         <v>124.5</v>
@@ -25124,7 +25202,7 @@
         <v>2.7</v>
       </c>
       <c r="BM99" s="8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BN99" s="8">
         <v>2.9</v>
@@ -26656,7 +26734,7 @@
         <v>3.4</v>
       </c>
       <c r="BO106" s="8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BP106" s="8">
         <v>2.6</v>
@@ -26672,6 +26750,224 @@
       </c>
       <c r="BT106" s="8">
         <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B107" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="C107" s="8">
+        <v>134</v>
+      </c>
+      <c r="D107" s="8">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="E107" s="8">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="F107" s="8">
+        <v>139</v>
+      </c>
+      <c r="G107" s="8">
+        <v>139.1</v>
+      </c>
+      <c r="H107" s="8">
+        <v>136</v>
+      </c>
+      <c r="I107" s="8">
+        <v>137</v>
+      </c>
+      <c r="J107" s="8">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="K107" s="8">
+        <v>121.3</v>
+      </c>
+      <c r="L107" s="8">
+        <v>236.6</v>
+      </c>
+      <c r="M107" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="N107" s="8">
+        <v>100.9</v>
+      </c>
+      <c r="O107" s="8">
+        <v>131.4</v>
+      </c>
+      <c r="P107" s="8">
+        <v>122.3</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>144.4</v>
+      </c>
+      <c r="R107" s="8">
+        <v>111.3</v>
+      </c>
+      <c r="S107" s="8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="T107" s="8">
+        <v>119.2</v>
+      </c>
+      <c r="U107" s="8">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="V107" s="8">
+        <v>131</v>
+      </c>
+      <c r="W107" s="8">
+        <v>145</v>
+      </c>
+      <c r="X107" s="8">
+        <v>92</v>
+      </c>
+      <c r="Y107" s="8">
+        <v>115</v>
+      </c>
+      <c r="Z107" s="8">
+        <v>122.3</v>
+      </c>
+      <c r="AA107" s="8">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="AB107" s="8">
+        <v>128.9</v>
+      </c>
+      <c r="AC107" s="8">
+        <v>127.5</v>
+      </c>
+      <c r="AD107" s="8">
+        <v>128.4</v>
+      </c>
+      <c r="AE107" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="AF107" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="AG107" s="8">
+        <v>131</v>
+      </c>
+      <c r="AH107" s="8">
+        <v>124.8</v>
+      </c>
+      <c r="AI107" s="8">
+        <v>120.1</v>
+      </c>
+      <c r="AJ107" s="8">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="AK107" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AL107" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="AM107" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AN107" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="AO107" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="AP107" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AQ107" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="AR107" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="AS107" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="AT107" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU107" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="AV107" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AW107" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AX107" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="AY107" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="AZ107" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BA107" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="BB107" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="BC107" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD107" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BE107" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BF107" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="BG107" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BH107" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BI107" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="BJ107" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="BK107" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="BL107" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="BM107" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="BN107" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="BO107" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="BP107" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="BQ107" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="BR107" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="BS107" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="BT107" s="8">
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
